--- a/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/60/Output_1_2.xlsx
+++ b/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/60/Output_1_2.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1821083.924498244</v>
+        <v>-1827520.44907383</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2220068.8925167</v>
+        <v>2280223.65389273</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>419463.093379124</v>
+        <v>419463.0933791244</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>14074559.67173843</v>
+        <v>14073969.69234802</v>
       </c>
     </row>
     <row r="11">
@@ -662,22 +662,22 @@
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>381.5867174954989</v>
       </c>
       <c r="E2" t="n">
-        <v>398.5576896346209</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>12.725494085322</v>
       </c>
       <c r="G2" t="n">
-        <v>219.5024305390383</v>
+        <v>409.0311279568768</v>
       </c>
       <c r="H2" t="n">
-        <v>320.8422199291742</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>136.9537457384598</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -704,7 +704,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>37.61298457733328</v>
+        <v>30.81461236118444</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -713,19 +713,19 @@
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>253.1952022697474</v>
       </c>
       <c r="V2" t="n">
-        <v>338.6857412035168</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>385.5580790162737</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>392.5258019886049</v>
       </c>
     </row>
     <row r="3">
@@ -738,7 +738,7 @@
         <v>150.2783710965517</v>
       </c>
       <c r="C3" t="n">
-        <v>149.1476881355087</v>
+        <v>24.5772516596524</v>
       </c>
       <c r="D3" t="n">
         <v>128.7880777047345</v>
@@ -783,13 +783,13 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>23.6778726709161</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>123.6176016258934</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>0</v>
+        <v>175.2139736830806</v>
       </c>
       <c r="U3" t="n">
         <v>207.9625118881446</v>
@@ -817,10 +817,10 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>168.5030667546707</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>154.0767819665104</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
@@ -832,13 +832,13 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>153.923765528121</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>30.07448747215907</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -862,13 +862,13 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>122.6619794737488</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>59.85154612559313</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>233.3618613134482</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
@@ -880,10 +880,10 @@
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>231.7395189948467</v>
+        <v>98.28580555333942</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>220.8809405715231</v>
       </c>
     </row>
     <row r="5">
@@ -896,7 +896,7 @@
         <v>396.4897982542829</v>
       </c>
       <c r="C5" t="n">
-        <v>389.2437464820987</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>381.5867174954989</v>
@@ -905,16 +905,16 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>412.725494085322</v>
+        <v>12.725494085322</v>
       </c>
       <c r="G5" t="n">
-        <v>9.031127956876844</v>
+        <v>409.0311279568768</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>136.9537457384598</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -950,19 +950,19 @@
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>253.1952022697474</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>90.75876639954485</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>385.5580790162737</v>
       </c>
       <c r="Y5" t="n">
-        <v>392.5258019886049</v>
+        <v>0.1693507561822344</v>
       </c>
     </row>
     <row r="6">
@@ -978,7 +978,7 @@
         <v>149.1476881355087</v>
       </c>
       <c r="D6" t="n">
-        <v>128.7880777047345</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
         <v>135.0820259802211</v>
@@ -987,7 +987,7 @@
         <v>123.1874880556995</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>118.8592197488542</v>
       </c>
       <c r="H6" t="n">
         <v>87.41444223540508</v>
@@ -1038,10 +1038,10 @@
         <v>227.816073408046</v>
       </c>
       <c r="X6" t="n">
-        <v>187.4140068734885</v>
+        <v>34.37240510232038</v>
       </c>
       <c r="Y6" t="n">
-        <v>111.2025521177849</v>
+        <v>177.5210747552478</v>
       </c>
     </row>
     <row r="7">
@@ -1054,7 +1054,7 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>168.5030667546707</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
@@ -1069,10 +1069,10 @@
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>153.923765528121</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>131.7634811092929</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1102,13 +1102,13 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>200.7879229792761</v>
       </c>
       <c r="T7" t="n">
-        <v>133.4180921734377</v>
+        <v>233.3618613134482</v>
       </c>
       <c r="U7" t="n">
-        <v>282.5844038405181</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -1117,7 +1117,7 @@
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>172.5160628947301</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -1130,25 +1130,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>12.05671494424093</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>186.8754866081973</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>12.725494085322</v>
+        <v>412.725494085322</v>
       </c>
       <c r="G8" t="n">
-        <v>409.0311279568768</v>
+        <v>9.031127956876844</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>320.8422199291742</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -1184,7 +1184,7 @@
         <v>164.8484195083599</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>221.2655964161775</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
@@ -1193,7 +1193,7 @@
         <v>338.6857412035168</v>
       </c>
       <c r="W8" t="n">
-        <v>367.2890446813954</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>385.5580790162737</v>
@@ -1294,10 +1294,10 @@
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>154.0767819665104</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>154.0032240193895</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
@@ -1312,7 +1312,7 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>30.07448747215907</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1339,22 +1339,22 @@
         <v>122.6619794737488</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>200.7879229792761</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>140.5971300345574</v>
       </c>
       <c r="U10" t="n">
-        <v>282.5844038405181</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>12.53464965442121</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>231.7395189948467</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -1367,16 +1367,16 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>325.4114858595509</v>
+        <v>325.411485859551</v>
       </c>
       <c r="C11" t="n">
         <v>318.1654340873667</v>
       </c>
       <c r="D11" t="n">
-        <v>310.5084051007669</v>
+        <v>310.508405100767</v>
       </c>
       <c r="E11" t="n">
-        <v>327.4793772398889</v>
+        <v>327.479377239889</v>
       </c>
       <c r="F11" t="n">
         <v>341.6471816905901</v>
@@ -1385,10 +1385,10 @@
         <v>337.9528155621449</v>
       </c>
       <c r="H11" t="n">
-        <v>249.7639075344423</v>
+        <v>148.6995003621354</v>
       </c>
       <c r="I11" t="n">
-        <v>65.87543334372785</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,25 +1418,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>93.77010711362797</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>150.1872840214455</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>267.6074288087849</v>
       </c>
       <c r="W11" t="n">
         <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>171.1899637792187</v>
+        <v>314.4797666215418</v>
       </c>
       <c r="Y11" t="n">
-        <v>321.4474895938729</v>
+        <v>321.447489593873</v>
       </c>
     </row>
     <row r="12">
@@ -1525,25 +1525,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>112.2776261096563</v>
+        <v>112.2776261096564</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>97.42475435993876</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>82.99846957177849</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>82.9249116246576</v>
       </c>
       <c r="F13" t="n">
-        <v>84.67436304442481</v>
+        <v>84.67436304442487</v>
       </c>
       <c r="G13" t="n">
-        <v>95.49320096681694</v>
+        <v>95.493200966817</v>
       </c>
       <c r="H13" t="n">
-        <v>82.84545313338899</v>
+        <v>69.77581967919625</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1573,28 +1573,28 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>51.58366707901683</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>129.7096105845442</v>
       </c>
       <c r="T13" t="n">
-        <v>162.2835489187162</v>
+        <v>162.2835489187163</v>
       </c>
       <c r="U13" t="n">
-        <v>211.5060914457861</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>130.6724038567444</v>
+        <v>192.2412393326521</v>
       </c>
       <c r="W13" t="n">
-        <v>209.4187856534022</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>160.6612066001148</v>
       </c>
       <c r="Y13" t="n">
-        <v>149.8026281767911</v>
+        <v>149.8026281767912</v>
       </c>
     </row>
     <row r="14">
@@ -1604,16 +1604,16 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>325.4114858595509</v>
+        <v>325.411485859551</v>
       </c>
       <c r="C14" t="n">
         <v>318.1654340873667</v>
       </c>
       <c r="D14" t="n">
-        <v>310.5084051007669</v>
+        <v>310.508405100767</v>
       </c>
       <c r="E14" t="n">
-        <v>327.4793772398889</v>
+        <v>327.479377239889</v>
       </c>
       <c r="F14" t="n">
         <v>341.6471816905901</v>
@@ -1622,10 +1622,10 @@
         <v>337.9528155621449</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>249.7639075344423</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>65.87543334372791</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1655,10 +1655,10 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>93.77010711362803</v>
       </c>
       <c r="T14" t="n">
-        <v>120.0961968842568</v>
+        <v>32.13423848633171</v>
       </c>
       <c r="U14" t="n">
         <v>0</v>
@@ -1667,13 +1667,13 @@
         <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>296.2107322866634</v>
+        <v>296.2107322866635</v>
       </c>
       <c r="X14" t="n">
         <v>314.4797666215418</v>
       </c>
       <c r="Y14" t="n">
-        <v>321.4474895938729</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -1762,28 +1762,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>112.2776261096563</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>97.4247543599387</v>
+        <v>97.42475435993876</v>
       </c>
       <c r="D16" t="n">
-        <v>82.99846957177843</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>82.92491162465754</v>
+        <v>82.9249116246576</v>
       </c>
       <c r="F16" t="n">
-        <v>84.67436304442481</v>
+        <v>84.67436304442487</v>
       </c>
       <c r="G16" t="n">
-        <v>95.49320096681694</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>82.84545313338899</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>60.68516871456097</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,28 +1810,28 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>51.58366707901683</v>
+        <v>51.58366707901689</v>
       </c>
       <c r="S16" t="n">
         <v>129.7096105845442</v>
       </c>
       <c r="T16" t="n">
-        <v>78.36539627237369</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>211.5060914457861</v>
+        <v>201.1410437991842</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>192.2412393326521</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>209.4187856534022</v>
       </c>
       <c r="X16" t="n">
         <v>160.6612066001148</v>
       </c>
       <c r="Y16" t="n">
-        <v>149.8026281767911</v>
+        <v>149.8026281767912</v>
       </c>
     </row>
     <row r="17">
@@ -1895,7 +1895,7 @@
         <v>34.48845019277556</v>
       </c>
       <c r="T17" t="n">
-        <v>90.90562710059334</v>
+        <v>90.90562710059362</v>
       </c>
       <c r="U17" t="n">
         <v>122.835232954163</v>
@@ -2330,13 +2330,13 @@
         <v>282.3655247697376</v>
       </c>
       <c r="G23" t="n">
-        <v>278.6711586412925</v>
+        <v>278.6711586412924</v>
       </c>
       <c r="H23" t="n">
         <v>190.4822506135899</v>
       </c>
       <c r="I23" t="n">
-        <v>6.593776422875465</v>
+        <v>6.593776422875436</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2366,10 +2366,10 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>34.48845019277559</v>
+        <v>34.48845019277517</v>
       </c>
       <c r="T23" t="n">
-        <v>90.90562710059314</v>
+        <v>90.90562710059311</v>
       </c>
       <c r="U23" t="n">
         <v>122.835232954163</v>
@@ -2378,10 +2378,10 @@
         <v>208.3257718879324</v>
       </c>
       <c r="W23" t="n">
-        <v>236.9290753658111</v>
+        <v>236.929075365811</v>
       </c>
       <c r="X23" t="n">
-        <v>255.1981097006894</v>
+        <v>255.1981097006893</v>
       </c>
       <c r="Y23" t="n">
         <v>262.1658326730205</v>
@@ -2473,28 +2473,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>52.99596918880391</v>
+        <v>52.99596918880388</v>
       </c>
       <c r="C25" t="n">
-        <v>38.14309743908632</v>
+        <v>38.14309743908629</v>
       </c>
       <c r="D25" t="n">
-        <v>23.71681265092604</v>
+        <v>23.71681265092602</v>
       </c>
       <c r="E25" t="n">
-        <v>23.64325470380516</v>
+        <v>23.64325470380513</v>
       </c>
       <c r="F25" t="n">
-        <v>25.39270612357242</v>
+        <v>25.3927061235724</v>
       </c>
       <c r="G25" t="n">
-        <v>36.21154404596456</v>
+        <v>36.21154404596453</v>
       </c>
       <c r="H25" t="n">
-        <v>23.5637962125366</v>
+        <v>23.56379621253657</v>
       </c>
       <c r="I25" t="n">
-        <v>1.403511793708532</v>
+        <v>1.403511793708503</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2524,25 +2524,25 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>70.42795366369177</v>
+        <v>70.42795366369174</v>
       </c>
       <c r="T25" t="n">
-        <v>103.0018919978639</v>
+        <v>103.0018919978638</v>
       </c>
       <c r="U25" t="n">
         <v>152.2244345249337</v>
       </c>
       <c r="V25" t="n">
-        <v>132.9595824117997</v>
+        <v>132.9595824117996</v>
       </c>
       <c r="W25" t="n">
         <v>150.1371287325498</v>
       </c>
       <c r="X25" t="n">
-        <v>101.3795496792624</v>
+        <v>101.3795496792623</v>
       </c>
       <c r="Y25" t="n">
-        <v>90.52097125593872</v>
+        <v>90.52097125593869</v>
       </c>
     </row>
     <row r="26">
@@ -2573,7 +2573,7 @@
         <v>226.8509454548578</v>
       </c>
       <c r="I26" t="n">
-        <v>42.96247126414336</v>
+        <v>42.96247126414335</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2603,7 +2603,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>70.85714503404348</v>
+        <v>70.85714503404347</v>
       </c>
       <c r="T26" t="n">
         <v>127.274321941861</v>
@@ -2710,28 +2710,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>89.36466403007181</v>
+        <v>89.36466403007179</v>
       </c>
       <c r="C28" t="n">
-        <v>74.51179228035421</v>
+        <v>74.5117922803542</v>
       </c>
       <c r="D28" t="n">
-        <v>60.08550749219394</v>
+        <v>60.08550749219393</v>
       </c>
       <c r="E28" t="n">
-        <v>60.01194954507305</v>
+        <v>60.01194954507304</v>
       </c>
       <c r="F28" t="n">
-        <v>61.76140096484032</v>
+        <v>61.76140096484031</v>
       </c>
       <c r="G28" t="n">
-        <v>72.58023888723245</v>
+        <v>72.58023888723244</v>
       </c>
       <c r="H28" t="n">
-        <v>59.9324910538045</v>
+        <v>59.93249105380448</v>
       </c>
       <c r="I28" t="n">
-        <v>37.77220663497643</v>
+        <v>37.77220663497641</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,13 +2758,13 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>28.67070499943235</v>
+        <v>28.67070499943233</v>
       </c>
       <c r="S28" t="n">
-        <v>106.7966485049597</v>
+        <v>106.7966485049596</v>
       </c>
       <c r="T28" t="n">
-        <v>139.3705868391318</v>
+        <v>139.3705868391317</v>
       </c>
       <c r="U28" t="n">
         <v>188.5931293662016</v>
@@ -2810,7 +2810,7 @@
         <v>226.8509454548578</v>
       </c>
       <c r="I29" t="n">
-        <v>42.96247126414336</v>
+        <v>42.96247126414335</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2840,7 +2840,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>70.85714503404348</v>
+        <v>70.85714503404347</v>
       </c>
       <c r="T29" t="n">
         <v>127.274321941861</v>
@@ -2947,28 +2947,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>89.36466403007181</v>
+        <v>89.36466403007179</v>
       </c>
       <c r="C31" t="n">
-        <v>74.51179228035421</v>
+        <v>74.5117922803542</v>
       </c>
       <c r="D31" t="n">
-        <v>60.08550749219394</v>
+        <v>60.08550749219393</v>
       </c>
       <c r="E31" t="n">
-        <v>60.01194954507305</v>
+        <v>60.01194954507304</v>
       </c>
       <c r="F31" t="n">
-        <v>61.76140096484032</v>
+        <v>61.76140096484031</v>
       </c>
       <c r="G31" t="n">
-        <v>72.58023888723245</v>
+        <v>72.58023888723244</v>
       </c>
       <c r="H31" t="n">
-        <v>59.9324910538045</v>
+        <v>59.93249105380448</v>
       </c>
       <c r="I31" t="n">
-        <v>37.77220663497643</v>
+        <v>37.77220663497641</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,13 +2995,13 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>28.67070499943235</v>
+        <v>28.67070499943233</v>
       </c>
       <c r="S31" t="n">
-        <v>106.7966485049597</v>
+        <v>106.7966485049596</v>
       </c>
       <c r="T31" t="n">
-        <v>139.3705868391318</v>
+        <v>139.3705868391317</v>
       </c>
       <c r="U31" t="n">
         <v>188.5931293662016</v>
@@ -3026,28 +3026,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>290.1533409542119</v>
+        <v>283.7098784815729</v>
       </c>
       <c r="C32" t="n">
-        <v>282.9072891820277</v>
+        <v>276.4638267093887</v>
       </c>
       <c r="D32" t="n">
-        <v>275.2502601954279</v>
+        <v>268.8067977227889</v>
       </c>
       <c r="E32" t="n">
-        <v>292.2212323345499</v>
+        <v>285.7777698619109</v>
       </c>
       <c r="F32" t="n">
-        <v>306.389036785251</v>
+        <v>299.945574312612</v>
       </c>
       <c r="G32" t="n">
-        <v>302.6946706568058</v>
+        <v>296.2512081841668</v>
       </c>
       <c r="H32" t="n">
-        <v>214.5057626291032</v>
+        <v>208.0623001564642</v>
       </c>
       <c r="I32" t="n">
-        <v>30.61728843838883</v>
+        <v>24.1738259657498</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3077,25 +3077,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>58.51196220828895</v>
+        <v>52.06849973564992</v>
       </c>
       <c r="T32" t="n">
-        <v>114.9291391161065</v>
+        <v>108.4856766434675</v>
       </c>
       <c r="U32" t="n">
-        <v>146.8587449696764</v>
+        <v>140.4152824970374</v>
       </c>
       <c r="V32" t="n">
-        <v>232.3492839034458</v>
+        <v>225.9058214308068</v>
       </c>
       <c r="W32" t="n">
-        <v>260.9525873813244</v>
+        <v>254.5091249086854</v>
       </c>
       <c r="X32" t="n">
-        <v>279.2216217162027</v>
+        <v>272.7781592435637</v>
       </c>
       <c r="Y32" t="n">
-        <v>286.1893446885339</v>
+        <v>279.7458822158949</v>
       </c>
     </row>
     <row r="33">
@@ -3184,28 +3184,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>77.01948120431727</v>
+        <v>70.57601873167825</v>
       </c>
       <c r="C34" t="n">
-        <v>62.16660945459968</v>
+        <v>55.72314698196065</v>
       </c>
       <c r="D34" t="n">
-        <v>47.74032466643941</v>
+        <v>41.29686219380038</v>
       </c>
       <c r="E34" t="n">
-        <v>47.66676671931852</v>
+        <v>41.22330424667949</v>
       </c>
       <c r="F34" t="n">
-        <v>49.41621813908579</v>
+        <v>42.97275566644676</v>
       </c>
       <c r="G34" t="n">
-        <v>60.23505606147792</v>
+        <v>53.79159358883889</v>
       </c>
       <c r="H34" t="n">
-        <v>47.58730822804996</v>
+        <v>41.14384575541094</v>
       </c>
       <c r="I34" t="n">
-        <v>25.42702380922189</v>
+        <v>18.98356133658287</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,28 +3232,28 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>16.32552217367781</v>
+        <v>9.882059701038784</v>
       </c>
       <c r="S34" t="n">
-        <v>94.45146567920513</v>
+        <v>88.0080032065661</v>
       </c>
       <c r="T34" t="n">
-        <v>127.0254040133772</v>
+        <v>120.5819415407382</v>
       </c>
       <c r="U34" t="n">
-        <v>176.2479465404471</v>
+        <v>169.8044840678081</v>
       </c>
       <c r="V34" t="n">
-        <v>156.983094427313</v>
+        <v>150.539631954674</v>
       </c>
       <c r="W34" t="n">
-        <v>174.1606407480631</v>
+        <v>167.7171782754241</v>
       </c>
       <c r="X34" t="n">
-        <v>125.4030616947757</v>
+        <v>118.9595992221367</v>
       </c>
       <c r="Y34" t="n">
-        <v>114.5444832714521</v>
+        <v>108.1010207988131</v>
       </c>
     </row>
     <row r="35">
@@ -3266,7 +3266,7 @@
         <v>266.1298289386986</v>
       </c>
       <c r="C35" t="n">
-        <v>258.8837771665143</v>
+        <v>258.8837771665144</v>
       </c>
       <c r="D35" t="n">
         <v>251.2267481799146</v>
@@ -3275,16 +3275,16 @@
         <v>268.1977203190365</v>
       </c>
       <c r="F35" t="n">
-        <v>282.3655247697376</v>
+        <v>282.3655247697377</v>
       </c>
       <c r="G35" t="n">
-        <v>278.6711586412924</v>
+        <v>278.6711586412925</v>
       </c>
       <c r="H35" t="n">
         <v>190.4822506135899</v>
       </c>
       <c r="I35" t="n">
-        <v>6.593776422875436</v>
+        <v>6.593776422875493</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3314,22 +3314,22 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>34.48845019277556</v>
+        <v>34.48845019277562</v>
       </c>
       <c r="T35" t="n">
-        <v>90.90562710059311</v>
+        <v>90.90562710059316</v>
       </c>
       <c r="U35" t="n">
         <v>122.835232954163</v>
       </c>
       <c r="V35" t="n">
-        <v>208.3257718879324</v>
+        <v>208.3257718879325</v>
       </c>
       <c r="W35" t="n">
-        <v>236.929075365811</v>
+        <v>236.9290753658111</v>
       </c>
       <c r="X35" t="n">
-        <v>255.1981097006893</v>
+        <v>255.1981097006894</v>
       </c>
       <c r="Y35" t="n">
         <v>262.1658326730205</v>
@@ -3421,28 +3421,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>52.99596918880388</v>
+        <v>52.99596918880394</v>
       </c>
       <c r="C37" t="n">
-        <v>38.14309743908629</v>
+        <v>38.14309743908635</v>
       </c>
       <c r="D37" t="n">
-        <v>23.71681265092602</v>
+        <v>23.71681265092607</v>
       </c>
       <c r="E37" t="n">
-        <v>23.64325470380513</v>
+        <v>23.64325470380518</v>
       </c>
       <c r="F37" t="n">
-        <v>25.3927061235724</v>
+        <v>25.39270612357245</v>
       </c>
       <c r="G37" t="n">
-        <v>36.21154404596453</v>
+        <v>36.21154404596459</v>
       </c>
       <c r="H37" t="n">
-        <v>23.56379621253657</v>
+        <v>23.56379621253663</v>
       </c>
       <c r="I37" t="n">
-        <v>1.403511793708503</v>
+        <v>1.40351179370856</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3472,25 +3472,25 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>70.42795366369174</v>
+        <v>70.4279536636918</v>
       </c>
       <c r="T37" t="n">
-        <v>103.0018919978638</v>
+        <v>103.0018919978639</v>
       </c>
       <c r="U37" t="n">
         <v>152.2244345249337</v>
       </c>
       <c r="V37" t="n">
-        <v>132.9595824117996</v>
+        <v>132.9595824117997</v>
       </c>
       <c r="W37" t="n">
         <v>150.1371287325498</v>
       </c>
       <c r="X37" t="n">
-        <v>101.3795496792623</v>
+        <v>101.3795496792624</v>
       </c>
       <c r="Y37" t="n">
-        <v>90.52097125593869</v>
+        <v>90.52097125593875</v>
       </c>
     </row>
     <row r="38">
@@ -3974,28 +3974,28 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>266.1298289386984</v>
+        <v>266.1298289386986</v>
       </c>
       <c r="C44" t="n">
         <v>258.8837771665143</v>
       </c>
       <c r="D44" t="n">
-        <v>251.2267481799145</v>
+        <v>251.2267481799146</v>
       </c>
       <c r="E44" t="n">
-        <v>268.1977203190364</v>
+        <v>268.1977203190365</v>
       </c>
       <c r="F44" t="n">
         <v>282.3655247697376</v>
       </c>
       <c r="G44" t="n">
-        <v>278.6711586412924</v>
+        <v>278.6711586412925</v>
       </c>
       <c r="H44" t="n">
-        <v>190.4822506135898</v>
+        <v>190.4822506135899</v>
       </c>
       <c r="I44" t="n">
-        <v>6.593776422875379</v>
+        <v>6.593776422875465</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4025,25 +4025,25 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>34.4884501927755</v>
+        <v>34.48845019277559</v>
       </c>
       <c r="T44" t="n">
-        <v>90.90562710059305</v>
+        <v>90.90562710059314</v>
       </c>
       <c r="U44" t="n">
-        <v>122.8352329541629</v>
+        <v>122.835232954163</v>
       </c>
       <c r="V44" t="n">
-        <v>208.3257718879323</v>
+        <v>208.3257718879324</v>
       </c>
       <c r="W44" t="n">
-        <v>236.929075365811</v>
+        <v>236.9290753658111</v>
       </c>
       <c r="X44" t="n">
-        <v>255.1981097006893</v>
+        <v>255.1981097006894</v>
       </c>
       <c r="Y44" t="n">
-        <v>262.1658326730204</v>
+        <v>262.1658326730205</v>
       </c>
     </row>
     <row r="45">
@@ -4132,28 +4132,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>52.99596918880383</v>
+        <v>52.99596918880391</v>
       </c>
       <c r="C46" t="n">
-        <v>38.14309743908623</v>
+        <v>38.14309743908632</v>
       </c>
       <c r="D46" t="n">
-        <v>23.71681265092596</v>
+        <v>23.71681265092604</v>
       </c>
       <c r="E46" t="n">
-        <v>23.64325470380507</v>
+        <v>23.64325470380516</v>
       </c>
       <c r="F46" t="n">
-        <v>25.39270612357234</v>
+        <v>25.39270612357242</v>
       </c>
       <c r="G46" t="n">
-        <v>36.21154404596447</v>
+        <v>36.21154404596456</v>
       </c>
       <c r="H46" t="n">
-        <v>23.56379621253652</v>
+        <v>23.5637962125366</v>
       </c>
       <c r="I46" t="n">
-        <v>1.403511793708446</v>
+        <v>1.403511793708532</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4183,25 +4183,25 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>70.42795366369168</v>
+        <v>70.42795366369177</v>
       </c>
       <c r="T46" t="n">
-        <v>103.0018919978638</v>
+        <v>103.0018919978639</v>
       </c>
       <c r="U46" t="n">
-        <v>152.2244345249336</v>
+        <v>152.2244345249337</v>
       </c>
       <c r="V46" t="n">
-        <v>132.9595824117996</v>
+        <v>132.9595824117997</v>
       </c>
       <c r="W46" t="n">
-        <v>150.1371287325497</v>
+        <v>150.1371287325498</v>
       </c>
       <c r="X46" t="n">
-        <v>101.3795496792623</v>
+        <v>101.3795496792624</v>
       </c>
       <c r="Y46" t="n">
-        <v>90.52097125593863</v>
+        <v>90.52097125593872</v>
       </c>
     </row>
   </sheetData>
@@ -4304,76 +4304,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1004.735895948447</v>
+        <v>991.2982823888209</v>
       </c>
       <c r="C2" t="n">
-        <v>1004.735895948447</v>
+        <v>991.2982823888209</v>
       </c>
       <c r="D2" t="n">
-        <v>1004.735895948447</v>
+        <v>605.8571536054886</v>
       </c>
       <c r="E2" t="n">
-        <v>602.1523710649919</v>
+        <v>605.8571536054886</v>
       </c>
       <c r="F2" t="n">
-        <v>589.2983366353737</v>
+        <v>593.0031191758704</v>
       </c>
       <c r="G2" t="n">
-        <v>367.5787098282643</v>
+        <v>179.8403636638736</v>
       </c>
       <c r="H2" t="n">
-        <v>43.49565939475495</v>
+        <v>179.8403636638736</v>
       </c>
       <c r="I2" t="n">
-        <v>43.49565939475495</v>
+        <v>41.50324675633843</v>
       </c>
       <c r="J2" t="n">
-        <v>188.145432303583</v>
+        <v>41.50324675633843</v>
       </c>
       <c r="K2" t="n">
-        <v>547.1277883310449</v>
+        <v>400.4856027838003</v>
       </c>
       <c r="L2" t="n">
-        <v>1040.448080049574</v>
+        <v>699.7694884660237</v>
       </c>
       <c r="M2" t="n">
-        <v>1578.706865059666</v>
+        <v>1213.372167075712</v>
       </c>
       <c r="N2" t="n">
-        <v>1989.937409596799</v>
+        <v>1726.9748456854</v>
       </c>
       <c r="O2" t="n">
-        <v>1989.937409596799</v>
+        <v>1726.9748456854</v>
       </c>
       <c r="P2" t="n">
-        <v>1989.937409596799</v>
+        <v>2075.162337816922</v>
       </c>
       <c r="Q2" t="n">
-        <v>2174.782969737747</v>
+        <v>2075.162337816922</v>
       </c>
       <c r="R2" t="n">
-        <v>2136.790056023269</v>
+        <v>2044.036466745018</v>
       </c>
       <c r="S2" t="n">
-        <v>2136.790056023269</v>
+        <v>2044.036466745018</v>
       </c>
       <c r="T2" t="n">
-        <v>2136.790056023269</v>
+        <v>2044.036466745018</v>
       </c>
       <c r="U2" t="n">
-        <v>2136.790056023269</v>
+        <v>1788.283737179617</v>
       </c>
       <c r="V2" t="n">
-        <v>1794.683246726788</v>
+        <v>1788.283737179617</v>
       </c>
       <c r="W2" t="n">
-        <v>1794.683246726788</v>
+        <v>1788.283737179617</v>
       </c>
       <c r="X2" t="n">
-        <v>1405.230641659844</v>
+        <v>1788.283737179617</v>
       </c>
       <c r="Y2" t="n">
-        <v>1405.230641659844</v>
+        <v>1391.793028100218</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4383,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>842.8616425347859</v>
+        <v>715.0405061833833</v>
       </c>
       <c r="C3" t="n">
-        <v>692.2074120948781</v>
+        <v>690.2149994564617</v>
       </c>
       <c r="D3" t="n">
-        <v>562.1184447163585</v>
+        <v>560.126032077942</v>
       </c>
       <c r="E3" t="n">
-        <v>425.6719538272462</v>
+        <v>423.6795411888297</v>
       </c>
       <c r="F3" t="n">
-        <v>301.240147710378</v>
+        <v>299.2477350719615</v>
       </c>
       <c r="G3" t="n">
-        <v>181.1803297822424</v>
+        <v>179.1879171438259</v>
       </c>
       <c r="H3" t="n">
-        <v>92.88291338284336</v>
+        <v>90.89050074442684</v>
       </c>
       <c r="I3" t="n">
-        <v>43.49565939475495</v>
+        <v>41.50324675633843</v>
       </c>
       <c r="J3" t="n">
-        <v>156.6106416144823</v>
+        <v>41.50324675633843</v>
       </c>
       <c r="K3" t="n">
-        <v>476.3497876767088</v>
+        <v>361.2423928185649</v>
       </c>
       <c r="L3" t="n">
-        <v>476.3497876767088</v>
+        <v>844.8084787168782</v>
       </c>
       <c r="M3" t="n">
-        <v>480.0174418653859</v>
+        <v>844.8084787168782</v>
       </c>
       <c r="N3" t="n">
-        <v>1018.276226875478</v>
+        <v>1358.411157326566</v>
       </c>
       <c r="O3" t="n">
-        <v>1534.796509466459</v>
+        <v>1872.013835936255</v>
       </c>
       <c r="P3" t="n">
-        <v>1940.417878182857</v>
+        <v>2075.162337816922</v>
       </c>
       <c r="Q3" t="n">
-        <v>2174.782969737747</v>
+        <v>2075.162337816922</v>
       </c>
       <c r="R3" t="n">
-        <v>2150.865926635812</v>
+        <v>2075.162337816922</v>
       </c>
       <c r="S3" t="n">
-        <v>2025.999662367233</v>
+        <v>2075.162337816922</v>
       </c>
       <c r="T3" t="n">
-        <v>2025.999662367233</v>
+        <v>1898.17852601583</v>
       </c>
       <c r="U3" t="n">
-        <v>1815.936519045874</v>
+        <v>1688.115382694472</v>
       </c>
       <c r="V3" t="n">
-        <v>1593.396517416941</v>
+        <v>1465.575381065539</v>
       </c>
       <c r="W3" t="n">
-        <v>1363.279271550228</v>
+        <v>1235.458135198826</v>
       </c>
       <c r="X3" t="n">
-        <v>1173.97219390024</v>
+        <v>1046.151057548837</v>
       </c>
       <c r="Y3" t="n">
-        <v>994.6579769757473</v>
+        <v>866.8368406243446</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4462,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1756.345550955739</v>
+        <v>1517.052633333779</v>
       </c>
       <c r="C4" t="n">
-        <v>1586.140433021728</v>
+        <v>1517.052633333779</v>
       </c>
       <c r="D4" t="n">
-        <v>1586.140433021728</v>
+        <v>1361.419520236294</v>
       </c>
       <c r="E4" t="n">
-        <v>1586.140433021728</v>
+        <v>1361.419520236294</v>
       </c>
       <c r="F4" t="n">
-        <v>1428.814498234701</v>
+        <v>1204.093585449267</v>
       </c>
       <c r="G4" t="n">
-        <v>1428.814498234701</v>
+        <v>1204.093585449267</v>
       </c>
       <c r="H4" t="n">
-        <v>1273.335947196195</v>
+        <v>1204.093585449267</v>
       </c>
       <c r="I4" t="n">
-        <v>1273.335947196195</v>
+        <v>1204.093585449267</v>
       </c>
       <c r="J4" t="n">
-        <v>1273.335947196195</v>
+        <v>1173.715315275369</v>
       </c>
       <c r="K4" t="n">
-        <v>1355.170988306137</v>
+        <v>1255.550356385311</v>
       </c>
       <c r="L4" t="n">
-        <v>1519.298628179936</v>
+        <v>1419.677996259111</v>
       </c>
       <c r="M4" t="n">
-        <v>1705.590206518201</v>
+        <v>1605.969574597375</v>
       </c>
       <c r="N4" t="n">
-        <v>1888.77984054941</v>
+        <v>1789.159208628584</v>
       </c>
       <c r="O4" t="n">
-        <v>2051.484607591118</v>
+        <v>1951.863975670292</v>
       </c>
       <c r="P4" t="n">
-        <v>2171.360773367696</v>
+        <v>2071.74014144687</v>
       </c>
       <c r="Q4" t="n">
-        <v>2174.782969737747</v>
+        <v>2075.162337816922</v>
       </c>
       <c r="R4" t="n">
-        <v>2050.881980370325</v>
+        <v>2075.162337816922</v>
       </c>
       <c r="S4" t="n">
-        <v>1990.425873172756</v>
+        <v>2075.162337816922</v>
       </c>
       <c r="T4" t="n">
-        <v>1990.425873172756</v>
+        <v>1839.443285985156</v>
       </c>
       <c r="U4" t="n">
-        <v>1990.425873172756</v>
+        <v>1839.443285985156</v>
       </c>
       <c r="V4" t="n">
-        <v>1990.425873172756</v>
+        <v>1839.443285985156</v>
       </c>
       <c r="W4" t="n">
-        <v>1990.425873172756</v>
+        <v>1839.443285985156</v>
       </c>
       <c r="X4" t="n">
-        <v>1756.345550955739</v>
+        <v>1740.164694517136</v>
       </c>
       <c r="Y4" t="n">
-        <v>1756.345550955739</v>
+        <v>1517.052633333779</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4541,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1248.129079616772</v>
+        <v>991.2982823888209</v>
       </c>
       <c r="C5" t="n">
-        <v>854.9535781197022</v>
+        <v>991.2982823888209</v>
       </c>
       <c r="D5" t="n">
-        <v>469.51244933637</v>
+        <v>605.8571536054886</v>
       </c>
       <c r="E5" t="n">
-        <v>469.51244933637</v>
+        <v>605.8571536054886</v>
       </c>
       <c r="F5" t="n">
-        <v>52.61801086634772</v>
+        <v>593.0031191758704</v>
       </c>
       <c r="G5" t="n">
-        <v>43.49565939475495</v>
+        <v>179.8403636638736</v>
       </c>
       <c r="H5" t="n">
-        <v>43.49565939475495</v>
+        <v>179.8403636638736</v>
       </c>
       <c r="I5" t="n">
-        <v>43.49565939475495</v>
+        <v>41.50324675633843</v>
       </c>
       <c r="J5" t="n">
-        <v>188.145432303583</v>
+        <v>41.50324675633843</v>
       </c>
       <c r="K5" t="n">
-        <v>547.1277883310449</v>
+        <v>400.4856027838003</v>
       </c>
       <c r="L5" t="n">
-        <v>1040.448080049574</v>
+        <v>863.1114204565971</v>
       </c>
       <c r="M5" t="n">
-        <v>1578.706865059666</v>
+        <v>1376.714099066285</v>
       </c>
       <c r="N5" t="n">
-        <v>1578.706865059666</v>
+        <v>1890.316777675973</v>
       </c>
       <c r="O5" t="n">
-        <v>2018.746465951995</v>
+        <v>1890.316777675973</v>
       </c>
       <c r="P5" t="n">
-        <v>2018.746465951995</v>
+        <v>1890.316777675973</v>
       </c>
       <c r="Q5" t="n">
-        <v>2174.782969737747</v>
+        <v>2075.162337816922</v>
       </c>
       <c r="R5" t="n">
-        <v>2136.790056023269</v>
+        <v>2037.169424102443</v>
       </c>
       <c r="S5" t="n">
-        <v>2136.790056023269</v>
+        <v>2037.169424102443</v>
       </c>
       <c r="T5" t="n">
-        <v>2136.790056023269</v>
+        <v>2037.169424102443</v>
       </c>
       <c r="U5" t="n">
-        <v>2136.790056023269</v>
+        <v>1781.416694537042</v>
       </c>
       <c r="V5" t="n">
-        <v>2136.790056023269</v>
+        <v>1781.416694537042</v>
       </c>
       <c r="W5" t="n">
-        <v>2045.114534407567</v>
+        <v>1781.416694537042</v>
       </c>
       <c r="X5" t="n">
-        <v>2045.114534407567</v>
+        <v>1391.964089470099</v>
       </c>
       <c r="Y5" t="n">
-        <v>1648.623825328169</v>
+        <v>1391.793028100218</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4620,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>722.8018246066504</v>
+        <v>710.7802625178498</v>
       </c>
       <c r="C6" t="n">
-        <v>572.1475941667426</v>
+        <v>560.126032077942</v>
       </c>
       <c r="D6" t="n">
-        <v>442.0586267882229</v>
+        <v>560.126032077942</v>
       </c>
       <c r="E6" t="n">
-        <v>305.6121358991106</v>
+        <v>423.6795411888297</v>
       </c>
       <c r="F6" t="n">
-        <v>181.1803297822424</v>
+        <v>299.2477350719615</v>
       </c>
       <c r="G6" t="n">
-        <v>181.1803297822424</v>
+        <v>179.1879171438259</v>
       </c>
       <c r="H6" t="n">
-        <v>92.88291338284336</v>
+        <v>90.89050074442684</v>
       </c>
       <c r="I6" t="n">
-        <v>43.49565939475495</v>
+        <v>41.50324675633843</v>
       </c>
       <c r="J6" t="n">
-        <v>43.49565939475495</v>
+        <v>154.6182289760658</v>
       </c>
       <c r="K6" t="n">
-        <v>43.49565939475495</v>
+        <v>474.3573750382923</v>
       </c>
       <c r="L6" t="n">
-        <v>527.0617452930682</v>
+        <v>957.9234609366056</v>
       </c>
       <c r="M6" t="n">
-        <v>1065.32053030316</v>
+        <v>1435.175877545634</v>
       </c>
       <c r="N6" t="n">
-        <v>1603.579315313253</v>
+        <v>1435.175877545634</v>
       </c>
       <c r="O6" t="n">
-        <v>2120.099597904234</v>
+        <v>1435.175877545634</v>
       </c>
       <c r="P6" t="n">
-        <v>2120.099597904234</v>
+        <v>1840.797246262031</v>
       </c>
       <c r="Q6" t="n">
-        <v>2174.782969737747</v>
+        <v>2075.162337816922</v>
       </c>
       <c r="R6" t="n">
-        <v>2150.865926635812</v>
+        <v>2051.245294714986</v>
       </c>
       <c r="S6" t="n">
-        <v>2015.935249535681</v>
+        <v>1916.314617614855</v>
       </c>
       <c r="T6" t="n">
-        <v>1838.951437734589</v>
+        <v>1739.330805813763</v>
       </c>
       <c r="U6" t="n">
-        <v>1628.888294413231</v>
+        <v>1529.267662492405</v>
       </c>
       <c r="V6" t="n">
-        <v>1406.348292784298</v>
+        <v>1306.727660863472</v>
       </c>
       <c r="W6" t="n">
-        <v>1176.231046917585</v>
+        <v>1076.610414996759</v>
       </c>
       <c r="X6" t="n">
-        <v>986.9239692675965</v>
+        <v>1041.890813883304</v>
       </c>
       <c r="Y6" t="n">
-        <v>874.5981590476117</v>
+        <v>862.5765969588111</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4699,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>524.7381405080693</v>
+        <v>330.1564842600581</v>
       </c>
       <c r="C7" t="n">
-        <v>354.5330225740585</v>
+        <v>330.1564842600581</v>
       </c>
       <c r="D7" t="n">
-        <v>354.5330225740585</v>
+        <v>330.1564842600581</v>
       </c>
       <c r="E7" t="n">
-        <v>198.974210433261</v>
+        <v>174.5976721192606</v>
       </c>
       <c r="F7" t="n">
-        <v>198.974210433261</v>
+        <v>174.5976721192606</v>
       </c>
       <c r="G7" t="n">
-        <v>198.974210433261</v>
+        <v>174.5976721192606</v>
       </c>
       <c r="H7" t="n">
-        <v>43.49565939475495</v>
+        <v>174.5976721192606</v>
       </c>
       <c r="I7" t="n">
-        <v>43.49565939475495</v>
+        <v>41.50324675633843</v>
       </c>
       <c r="J7" t="n">
-        <v>43.49565939475495</v>
+        <v>41.50324675633843</v>
       </c>
       <c r="K7" t="n">
-        <v>125.3307005046968</v>
+        <v>123.3382878662803</v>
       </c>
       <c r="L7" t="n">
-        <v>289.4583403784966</v>
+        <v>287.4659277400801</v>
       </c>
       <c r="M7" t="n">
-        <v>475.7499187167606</v>
+        <v>473.7575060783441</v>
       </c>
       <c r="N7" t="n">
-        <v>658.9395527479699</v>
+        <v>656.9471401095534</v>
       </c>
       <c r="O7" t="n">
-        <v>821.6443197896779</v>
+        <v>819.6519071512614</v>
       </c>
       <c r="P7" t="n">
-        <v>941.5204855662564</v>
+        <v>939.52807292784</v>
       </c>
       <c r="Q7" t="n">
-        <v>944.9426819363074</v>
+        <v>942.9502692978909</v>
       </c>
       <c r="R7" t="n">
-        <v>944.9426819363074</v>
+        <v>942.9502692978909</v>
       </c>
       <c r="S7" t="n">
-        <v>944.9426819363074</v>
+        <v>740.1341854804402</v>
       </c>
       <c r="T7" t="n">
-        <v>810.1769322661683</v>
+        <v>504.4151336486743</v>
       </c>
       <c r="U7" t="n">
-        <v>524.7381405080693</v>
+        <v>504.4151336486743</v>
       </c>
       <c r="V7" t="n">
-        <v>524.7381405080693</v>
+        <v>504.4151336486743</v>
       </c>
       <c r="W7" t="n">
-        <v>524.7381405080693</v>
+        <v>504.4151336486743</v>
       </c>
       <c r="X7" t="n">
-        <v>524.7381405080693</v>
+        <v>330.1564842600581</v>
       </c>
       <c r="Y7" t="n">
-        <v>524.7381405080693</v>
+        <v>330.1564842600581</v>
       </c>
     </row>
     <row r="8">
@@ -4778,22 +4778,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>662.0928778292166</v>
+        <v>797.412810476668</v>
       </c>
       <c r="C8" t="n">
-        <v>662.0928778292166</v>
+        <v>797.412810476668</v>
       </c>
       <c r="D8" t="n">
-        <v>473.3297600431587</v>
+        <v>797.412810476668</v>
       </c>
       <c r="E8" t="n">
-        <v>473.3297600431587</v>
+        <v>797.412810476668</v>
       </c>
       <c r="F8" t="n">
-        <v>460.4757256135405</v>
+        <v>380.5183720066457</v>
       </c>
       <c r="G8" t="n">
-        <v>47.31297010154361</v>
+        <v>371.396020535053</v>
       </c>
       <c r="H8" t="n">
         <v>47.31297010154361</v>
@@ -4805,22 +4805,22 @@
         <v>191.9627430103717</v>
       </c>
       <c r="K8" t="n">
-        <v>550.9450990378335</v>
+        <v>265.4829774041385</v>
       </c>
       <c r="L8" t="n">
-        <v>1044.265390756362</v>
+        <v>758.8032691226673</v>
       </c>
       <c r="M8" t="n">
-        <v>1590.266290800943</v>
+        <v>1304.804169167248</v>
       </c>
       <c r="N8" t="n">
-        <v>2017.461012945658</v>
+        <v>1832.61545280471</v>
       </c>
       <c r="O8" t="n">
-        <v>2017.461012945658</v>
+        <v>1832.61545280471</v>
       </c>
       <c r="P8" t="n">
-        <v>2365.64850507718</v>
+        <v>2180.802944936232</v>
       </c>
       <c r="Q8" t="n">
         <v>2365.64850507718</v>
@@ -4832,22 +4832,22 @@
         <v>2161.142036303753</v>
       </c>
       <c r="T8" t="n">
-        <v>2161.142036303753</v>
+        <v>1937.641433863169</v>
       </c>
       <c r="U8" t="n">
-        <v>2161.142036303753</v>
+        <v>1937.641433863169</v>
       </c>
       <c r="V8" t="n">
-        <v>1819.035227007271</v>
+        <v>1595.534624566688</v>
       </c>
       <c r="W8" t="n">
-        <v>1448.036191975559</v>
+        <v>1595.534624566688</v>
       </c>
       <c r="X8" t="n">
-        <v>1058.583586908615</v>
+        <v>1206.082019499745</v>
       </c>
       <c r="Y8" t="n">
-        <v>662.0928778292166</v>
+        <v>809.5913104203457</v>
       </c>
     </row>
     <row r="9">
@@ -4884,22 +4884,22 @@
         <v>160.4279523212711</v>
       </c>
       <c r="K9" t="n">
-        <v>194.5661265746817</v>
+        <v>480.1670983834975</v>
       </c>
       <c r="L9" t="n">
-        <v>678.132212472995</v>
+        <v>963.7331842818107</v>
       </c>
       <c r="M9" t="n">
-        <v>1263.630217479597</v>
+        <v>1209.141762214911</v>
       </c>
       <c r="N9" t="n">
-        <v>1849.128222486199</v>
+        <v>1209.141762214911</v>
       </c>
       <c r="O9" t="n">
-        <v>2365.64850507718</v>
+        <v>1725.662044805892</v>
       </c>
       <c r="P9" t="n">
-        <v>2365.64850507718</v>
+        <v>2131.28341352229</v>
       </c>
       <c r="Q9" t="n">
         <v>2365.64850507718</v>
@@ -4936,28 +4936,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>526.7589492403808</v>
+        <v>245.9452941759961</v>
       </c>
       <c r="C10" t="n">
-        <v>526.7589492403808</v>
+        <v>245.9452941759961</v>
       </c>
       <c r="D10" t="n">
-        <v>371.1258361428955</v>
+        <v>245.9452941759961</v>
       </c>
       <c r="E10" t="n">
-        <v>215.5670240020981</v>
+        <v>245.9452941759961</v>
       </c>
       <c r="F10" t="n">
-        <v>215.5670240020981</v>
+        <v>245.9452941759961</v>
       </c>
       <c r="G10" t="n">
-        <v>47.31297010154361</v>
+        <v>77.69124027544166</v>
       </c>
       <c r="H10" t="n">
-        <v>47.31297010154361</v>
+        <v>77.69124027544166</v>
       </c>
       <c r="I10" t="n">
-        <v>47.31297010154361</v>
+        <v>77.69124027544166</v>
       </c>
       <c r="J10" t="n">
         <v>47.31297010154361</v>
@@ -4987,25 +4987,25 @@
         <v>824.8590032756731</v>
       </c>
       <c r="S10" t="n">
-        <v>824.8590032756731</v>
+        <v>622.0429194582225</v>
       </c>
       <c r="T10" t="n">
-        <v>824.8590032756731</v>
+        <v>480.025616393013</v>
       </c>
       <c r="U10" t="n">
-        <v>539.420211517574</v>
+        <v>480.025616393013</v>
       </c>
       <c r="V10" t="n">
-        <v>526.7589492403808</v>
+        <v>480.025616393013</v>
       </c>
       <c r="W10" t="n">
-        <v>526.7589492403808</v>
+        <v>480.025616393013</v>
       </c>
       <c r="X10" t="n">
-        <v>526.7589492403808</v>
+        <v>245.9452941759961</v>
       </c>
       <c r="Y10" t="n">
-        <v>526.7589492403808</v>
+        <v>245.9452941759961</v>
       </c>
     </row>
     <row r="11">
@@ -5015,25 +5015,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2033.222718167679</v>
+        <v>1864.596616636331</v>
       </c>
       <c r="C11" t="n">
-        <v>1711.843491816803</v>
+        <v>1543.217390285456</v>
       </c>
       <c r="D11" t="n">
-        <v>1398.198638179665</v>
+        <v>1229.572536648318</v>
       </c>
       <c r="E11" t="n">
-        <v>1067.411388442403</v>
+        <v>898.7852869110559</v>
       </c>
       <c r="F11" t="n">
-        <v>722.3132251185752</v>
+        <v>553.6871235872275</v>
       </c>
       <c r="G11" t="n">
-        <v>380.9467447527722</v>
+        <v>212.320643221424</v>
       </c>
       <c r="H11" t="n">
-        <v>128.6599694654568</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="I11" t="n">
         <v>62.11912770411553</v>
@@ -5066,25 +5066,25 @@
         <v>3105.956385205776</v>
       </c>
       <c r="S11" t="n">
-        <v>3011.239105293021</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="T11" t="n">
-        <v>2859.534777998631</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="U11" t="n">
-        <v>2859.534777998631</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="V11" t="n">
-        <v>2859.534777998631</v>
+        <v>2835.645851055488</v>
       </c>
       <c r="W11" t="n">
-        <v>2859.534777998631</v>
+        <v>2835.645851055488</v>
       </c>
       <c r="X11" t="n">
-        <v>2686.615622666087</v>
+        <v>2517.989521134739</v>
       </c>
       <c r="Y11" t="n">
-        <v>2361.921188732882</v>
+        <v>2193.295087201534</v>
       </c>
     </row>
     <row r="12">
@@ -5173,22 +5173,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>327.7888419916214</v>
+        <v>580.5954097716034</v>
       </c>
       <c r="C13" t="n">
-        <v>327.7888419916214</v>
+        <v>482.1865669837865</v>
       </c>
       <c r="D13" t="n">
-        <v>327.7888419916214</v>
+        <v>398.3497290324951</v>
       </c>
       <c r="E13" t="n">
-        <v>327.7888419916214</v>
+        <v>314.5871920378914</v>
       </c>
       <c r="F13" t="n">
-        <v>242.2591823507883</v>
+        <v>229.0575323970583</v>
       </c>
       <c r="G13" t="n">
-        <v>145.8014035964277</v>
+        <v>132.5997536426976</v>
       </c>
       <c r="H13" t="n">
         <v>62.11912770411553</v>
@@ -5197,52 +5197,52 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J13" t="n">
-        <v>102.7129143774627</v>
+        <v>102.7129143774626</v>
       </c>
       <c r="K13" t="n">
-        <v>254.9154847581893</v>
+        <v>254.9154847581891</v>
       </c>
       <c r="L13" t="n">
-        <v>489.4106539027739</v>
+        <v>489.4106539027734</v>
       </c>
       <c r="M13" t="n">
-        <v>746.0697615118225</v>
+        <v>746.0697615118221</v>
       </c>
       <c r="N13" t="n">
-        <v>999.6269248138165</v>
+        <v>999.6269248138159</v>
       </c>
       <c r="O13" t="n">
         <v>1232.699221126309</v>
       </c>
       <c r="P13" t="n">
-        <v>1422.942916173673</v>
+        <v>1422.942916173672</v>
       </c>
       <c r="Q13" t="n">
         <v>1496.732641814508</v>
       </c>
       <c r="R13" t="n">
-        <v>1444.627927593279</v>
+        <v>1496.732641814508</v>
       </c>
       <c r="S13" t="n">
-        <v>1313.608118922022</v>
+        <v>1365.712833143251</v>
       </c>
       <c r="T13" t="n">
-        <v>1149.68534223645</v>
+        <v>1201.790056457679</v>
       </c>
       <c r="U13" t="n">
-        <v>936.0428256245447</v>
+        <v>1201.790056457679</v>
       </c>
       <c r="V13" t="n">
-        <v>804.05049849652</v>
+        <v>1007.606986424697</v>
       </c>
       <c r="W13" t="n">
-        <v>592.5163715738915</v>
+        <v>1007.606986424697</v>
       </c>
       <c r="X13" t="n">
-        <v>592.5163715738915</v>
+        <v>845.3229393538736</v>
       </c>
       <c r="Y13" t="n">
-        <v>441.2005855367287</v>
+        <v>694.0071533167109</v>
       </c>
     </row>
     <row r="14">
@@ -5252,25 +5252,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1714.395101119022</v>
+        <v>2033.222718167679</v>
       </c>
       <c r="C14" t="n">
-        <v>1393.015874768147</v>
+        <v>1711.843491816804</v>
       </c>
       <c r="D14" t="n">
-        <v>1079.371021131008</v>
+        <v>1398.198638179665</v>
       </c>
       <c r="E14" t="n">
-        <v>748.5837713937467</v>
+        <v>1067.411388442404</v>
       </c>
       <c r="F14" t="n">
-        <v>403.4856080699185</v>
+        <v>722.3132251185755</v>
       </c>
       <c r="G14" t="n">
-        <v>62.11912770411553</v>
+        <v>380.9467447527722</v>
       </c>
       <c r="H14" t="n">
-        <v>62.11912770411553</v>
+        <v>128.6599694654569</v>
       </c>
       <c r="I14" t="n">
         <v>62.11912770411553</v>
@@ -5303,25 +5303,25 @@
         <v>3105.956385205776</v>
       </c>
       <c r="S14" t="n">
-        <v>3105.956385205776</v>
+        <v>3011.239105293021</v>
       </c>
       <c r="T14" t="n">
-        <v>2984.647095423698</v>
+        <v>2978.78027853915</v>
       </c>
       <c r="U14" t="n">
-        <v>2984.647095423698</v>
+        <v>2978.78027853915</v>
       </c>
       <c r="V14" t="n">
-        <v>2984.647095423698</v>
+        <v>2978.78027853915</v>
       </c>
       <c r="W14" t="n">
-        <v>2685.44433553818</v>
+        <v>2679.577518653632</v>
       </c>
       <c r="X14" t="n">
-        <v>2367.78800561743</v>
+        <v>2361.921188732882</v>
       </c>
       <c r="Y14" t="n">
-        <v>2043.093571684225</v>
+        <v>2361.921188732882</v>
       </c>
     </row>
     <row r="15">
@@ -5358,22 +5358,22 @@
         <v>175.2341099238429</v>
       </c>
       <c r="K15" t="n">
-        <v>175.2341099238429</v>
+        <v>494.9732559860694</v>
       </c>
       <c r="L15" t="n">
-        <v>658.8001958221562</v>
+        <v>978.5393418843826</v>
       </c>
       <c r="M15" t="n">
-        <v>1208.156408878212</v>
+        <v>1223.947919817482</v>
       </c>
       <c r="N15" t="n">
-        <v>1863.93438008877</v>
+        <v>1223.947919817482</v>
       </c>
       <c r="O15" t="n">
-        <v>2380.454662679751</v>
+        <v>1740.468202408463</v>
       </c>
       <c r="P15" t="n">
-        <v>2380.454662679751</v>
+        <v>2146.089571124861</v>
       </c>
       <c r="Q15" t="n">
         <v>2380.454662679751</v>
@@ -5410,52 +5410,52 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>593.7970597253332</v>
+        <v>391.1183173440976</v>
       </c>
       <c r="C16" t="n">
-        <v>495.3882169375162</v>
+        <v>292.7094745562807</v>
       </c>
       <c r="D16" t="n">
-        <v>411.5513789862249</v>
+        <v>292.7094745562807</v>
       </c>
       <c r="E16" t="n">
-        <v>327.7888419916213</v>
+        <v>208.946937561677</v>
       </c>
       <c r="F16" t="n">
-        <v>242.2591823507882</v>
+        <v>123.4172779208438</v>
       </c>
       <c r="G16" t="n">
-        <v>145.8014035964276</v>
+        <v>123.4172779208438</v>
       </c>
       <c r="H16" t="n">
-        <v>62.11912770411553</v>
+        <v>123.4172779208438</v>
       </c>
       <c r="I16" t="n">
         <v>62.11912770411553</v>
       </c>
       <c r="J16" t="n">
-        <v>102.7129143774627</v>
+        <v>102.7129143774626</v>
       </c>
       <c r="K16" t="n">
-        <v>254.9154847581892</v>
+        <v>254.9154847581891</v>
       </c>
       <c r="L16" t="n">
-        <v>489.4106539027737</v>
+        <v>489.4106539027734</v>
       </c>
       <c r="M16" t="n">
-        <v>746.0697615118223</v>
+        <v>746.0697615118221</v>
       </c>
       <c r="N16" t="n">
-        <v>999.6269248138162</v>
+        <v>999.6269248138159</v>
       </c>
       <c r="O16" t="n">
-        <v>1232.699221126309</v>
+        <v>1232.699221126308</v>
       </c>
       <c r="P16" t="n">
         <v>1422.942916173672</v>
       </c>
       <c r="Q16" t="n">
-        <v>1496.732641814508</v>
+        <v>1496.732641814507</v>
       </c>
       <c r="R16" t="n">
         <v>1444.627927593278</v>
@@ -5464,22 +5464,22 @@
         <v>1313.608118922022</v>
       </c>
       <c r="T16" t="n">
-        <v>1234.451152990331</v>
+        <v>1313.608118922022</v>
       </c>
       <c r="U16" t="n">
-        <v>1020.808636378426</v>
+        <v>1110.435347407694</v>
       </c>
       <c r="V16" t="n">
-        <v>1020.808636378426</v>
+        <v>916.2522773747121</v>
       </c>
       <c r="W16" t="n">
-        <v>1020.808636378426</v>
+        <v>704.7181504520836</v>
       </c>
       <c r="X16" t="n">
-        <v>858.5245893076033</v>
+        <v>542.4341033812605</v>
       </c>
       <c r="Y16" t="n">
-        <v>707.2088032704405</v>
+        <v>391.1183173440976</v>
       </c>
     </row>
     <row r="17">
@@ -5555,10 +5555,10 @@
         <v>2405.46733722469</v>
       </c>
       <c r="X17" t="n">
-        <v>2147.691468840156</v>
+        <v>2147.691468840155</v>
       </c>
       <c r="Y17" t="n">
-        <v>1882.877496443166</v>
+        <v>1882.877496443165</v>
       </c>
     </row>
     <row r="18">
@@ -5601,10 +5601,10 @@
         <v>978.5393418843826</v>
       </c>
       <c r="M18" t="n">
-        <v>978.5393418843826</v>
+        <v>1223.947919817482</v>
       </c>
       <c r="N18" t="n">
-        <v>1634.317313094942</v>
+        <v>1223.947919817482</v>
       </c>
       <c r="O18" t="n">
         <v>1740.468202408463</v>
@@ -5683,7 +5683,7 @@
         <v>494.3733870261212</v>
       </c>
       <c r="N19" t="n">
-        <v>677.5630210573304</v>
+        <v>804.5780233445255</v>
       </c>
       <c r="O19" t="n">
         <v>967.2827903862335</v>
@@ -5732,16 +5732,16 @@
         <v>1352.560722599516</v>
       </c>
       <c r="D20" t="n">
-        <v>1098.796330498592</v>
+        <v>1098.796330498593</v>
       </c>
       <c r="E20" t="n">
-        <v>827.8895422975452</v>
+        <v>827.8895422975456</v>
       </c>
       <c r="F20" t="n">
-        <v>542.6718405099314</v>
+        <v>542.6718405099318</v>
       </c>
       <c r="G20" t="n">
-        <v>261.185821680343</v>
+        <v>261.1858216803435</v>
       </c>
       <c r="H20" t="n">
         <v>68.77950792924224</v>
@@ -5759,10 +5759,10 @@
         <v>1059.071548358934</v>
       </c>
       <c r="M20" t="n">
-        <v>1605.072448403516</v>
+        <v>1605.072448403515</v>
       </c>
       <c r="N20" t="n">
-        <v>2132.883732040978</v>
+        <v>2132.883732040977</v>
       </c>
       <c r="O20" t="n">
         <v>2572.923332933306</v>
@@ -5786,7 +5786,7 @@
         <v>2855.219708188068</v>
       </c>
       <c r="V20" t="n">
-        <v>2644.789635573994</v>
+        <v>2644.789635573995</v>
       </c>
       <c r="W20" t="n">
         <v>2405.467337224691</v>
@@ -5795,7 +5795,7 @@
         <v>2147.691468840156</v>
       </c>
       <c r="Y20" t="n">
-        <v>1882.877496443165</v>
+        <v>1882.877496443166</v>
       </c>
     </row>
     <row r="21">
@@ -5829,13 +5829,13 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J21" t="n">
-        <v>62.11912770411553</v>
+        <v>175.2341099238429</v>
       </c>
       <c r="K21" t="n">
-        <v>381.858273766342</v>
+        <v>494.9732559860694</v>
       </c>
       <c r="L21" t="n">
-        <v>865.4243596646552</v>
+        <v>978.5393418843826</v>
       </c>
       <c r="M21" t="n">
         <v>1223.947919817482</v>
@@ -5914,19 +5914,19 @@
         <v>143.9541688140574</v>
       </c>
       <c r="L22" t="n">
-        <v>308.0818086878572</v>
+        <v>437.1381783102856</v>
       </c>
       <c r="M22" t="n">
-        <v>494.3733870261212</v>
+        <v>623.4297566485496</v>
       </c>
       <c r="N22" t="n">
-        <v>677.5630210573304</v>
+        <v>812.1990332879427</v>
       </c>
       <c r="O22" t="n">
-        <v>840.2677880990384</v>
+        <v>974.9038003296507</v>
       </c>
       <c r="P22" t="n">
-        <v>965.7235964838006</v>
+        <v>1094.779966106229</v>
       </c>
       <c r="Q22" t="n">
         <v>1098.20216247628</v>
@@ -5978,10 +5978,10 @@
         <v>542.6718405099314</v>
       </c>
       <c r="G23" t="n">
-        <v>261.185821680343</v>
+        <v>261.1858216803431</v>
       </c>
       <c r="H23" t="n">
-        <v>68.77950792924226</v>
+        <v>68.77950792924223</v>
       </c>
       <c r="I23" t="n">
         <v>62.11912770411553</v>
@@ -6023,10 +6023,10 @@
         <v>2855.219708188068</v>
       </c>
       <c r="V23" t="n">
-        <v>2644.789635573995</v>
+        <v>2644.789635573994</v>
       </c>
       <c r="W23" t="n">
-        <v>2405.467337224691</v>
+        <v>2405.46733722469</v>
       </c>
       <c r="X23" t="n">
         <v>2147.691468840156</v>
@@ -6121,25 +6121,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>235.9319791885596</v>
+        <v>235.9319791885594</v>
       </c>
       <c r="C25" t="n">
-        <v>197.4035979369573</v>
+        <v>197.4035979369571</v>
       </c>
       <c r="D25" t="n">
-        <v>173.4472215218805</v>
+        <v>173.4472215218803</v>
       </c>
       <c r="E25" t="n">
-        <v>149.5651460634914</v>
+        <v>149.5651460634913</v>
       </c>
       <c r="F25" t="n">
-        <v>123.9159479588728</v>
+        <v>123.9159479588727</v>
       </c>
       <c r="G25" t="n">
-        <v>87.33863074072679</v>
+        <v>87.33863074072673</v>
       </c>
       <c r="H25" t="n">
-        <v>63.5368163846292</v>
+        <v>63.53681638462917</v>
       </c>
       <c r="I25" t="n">
         <v>62.11912770411553</v>
@@ -6151,46 +6151,46 @@
         <v>143.9541688140574</v>
       </c>
       <c r="L25" t="n">
-        <v>437.1381783102856</v>
+        <v>308.0818086878572</v>
       </c>
       <c r="M25" t="n">
-        <v>623.4297566485496</v>
+        <v>621.3883893133163</v>
       </c>
       <c r="N25" t="n">
-        <v>806.6193906797589</v>
+        <v>804.5780233445255</v>
       </c>
       <c r="O25" t="n">
-        <v>969.3241577214669</v>
+        <v>967.2827903862335</v>
       </c>
       <c r="P25" t="n">
-        <v>1089.200323498045</v>
+        <v>1087.158956162812</v>
       </c>
       <c r="Q25" t="n">
-        <v>1092.622519868096</v>
+        <v>1090.581152532863</v>
       </c>
       <c r="R25" t="n">
-        <v>1098.202162476281</v>
+        <v>1098.20216247628</v>
       </c>
       <c r="S25" t="n">
         <v>1027.062815341238</v>
       </c>
       <c r="T25" t="n">
-        <v>923.020500191881</v>
+        <v>923.0205001918806</v>
       </c>
       <c r="U25" t="n">
-        <v>769.2584451161904</v>
+        <v>769.25844511619</v>
       </c>
       <c r="V25" t="n">
-        <v>634.9558366194231</v>
+        <v>634.9558366194227</v>
       </c>
       <c r="W25" t="n">
-        <v>483.3021712330091</v>
+        <v>483.3021712330088</v>
       </c>
       <c r="X25" t="n">
-        <v>380.8985856984007</v>
+        <v>380.8985856984004</v>
       </c>
       <c r="Y25" t="n">
-        <v>289.4632611974525</v>
+        <v>289.4632611974523</v>
       </c>
     </row>
     <row r="26">
@@ -6200,10 +6200,10 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1882.457606424153</v>
+        <v>1882.457606424152</v>
       </c>
       <c r="C26" t="n">
-        <v>1584.222786214272</v>
+        <v>1584.222786214271</v>
       </c>
       <c r="D26" t="n">
         <v>1293.722338718128</v>
@@ -6227,46 +6227,46 @@
         <v>311.0659935859517</v>
       </c>
       <c r="K26" t="n">
-        <v>755.8323718938487</v>
+        <v>763.0997113429868</v>
       </c>
       <c r="L26" t="n">
-        <v>1342.204025341951</v>
+        <v>1256.420003061516</v>
       </c>
       <c r="M26" t="n">
-        <v>1981.256287116105</v>
+        <v>1895.47226483567</v>
       </c>
       <c r="N26" t="n">
-        <v>2602.11893248314</v>
+        <v>2423.283548473132</v>
       </c>
       <c r="O26" t="n">
-        <v>3135.209895105042</v>
+        <v>2956.374511095034</v>
       </c>
       <c r="P26" t="n">
-        <v>3483.397387236564</v>
+        <v>3334.531518508978</v>
       </c>
       <c r="Q26" t="n">
-        <v>3668.242947377513</v>
+        <v>3612.4284403795</v>
       </c>
       <c r="R26" t="n">
         <v>3668.242947377513</v>
       </c>
       <c r="S26" t="n">
-        <v>3596.670073605752</v>
+        <v>3596.670073605751</v>
       </c>
       <c r="T26" t="n">
-        <v>3468.110152452357</v>
+        <v>3468.110152452356</v>
       </c>
       <c r="U26" t="n">
-        <v>3307.298104174144</v>
+        <v>3307.298104174143</v>
       </c>
       <c r="V26" t="n">
-        <v>3060.131976164851</v>
+        <v>3060.13197616485</v>
       </c>
       <c r="W26" t="n">
-        <v>2784.073622420327</v>
+        <v>2784.073622420326</v>
       </c>
       <c r="X26" t="n">
-        <v>2489.561698640572</v>
+        <v>2489.561698640571</v>
       </c>
       <c r="Y26" t="n">
         <v>2188.011670848361</v>
@@ -6279,76 +6279,76 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>2149.273395541907</v>
+        <v>872.7308420875812</v>
       </c>
       <c r="C27" t="n">
-        <v>1998.619165101999</v>
+        <v>722.0766116476734</v>
       </c>
       <c r="D27" t="n">
-        <v>1868.53019772348</v>
+        <v>591.9876442691537</v>
       </c>
       <c r="E27" t="n">
-        <v>1732.083706834368</v>
+        <v>455.5411533800415</v>
       </c>
       <c r="F27" t="n">
-        <v>1607.651900717499</v>
+        <v>331.1093472631733</v>
       </c>
       <c r="G27" t="n">
-        <v>1487.592082789364</v>
+        <v>211.0495293350377</v>
       </c>
       <c r="H27" t="n">
-        <v>1399.294666389965</v>
+        <v>122.7521129356387</v>
       </c>
       <c r="I27" t="n">
-        <v>1349.907412401876</v>
+        <v>73.36485894755026</v>
       </c>
       <c r="J27" t="n">
-        <v>1463.022394621604</v>
+        <v>186.4798411672776</v>
       </c>
       <c r="K27" t="n">
-        <v>1782.76154068383</v>
+        <v>506.2189872295041</v>
       </c>
       <c r="L27" t="n">
-        <v>2266.327626582143</v>
+        <v>989.7850731278173</v>
       </c>
       <c r="M27" t="n">
-        <v>2894.099276208824</v>
+        <v>1617.556722754498</v>
       </c>
       <c r="N27" t="n">
-        <v>2894.099276208824</v>
+        <v>1617.556722754498</v>
       </c>
       <c r="O27" t="n">
-        <v>3410.619558799805</v>
+        <v>2134.077005345479</v>
       </c>
       <c r="P27" t="n">
-        <v>3668.242947377513</v>
+        <v>2391.700393923186</v>
       </c>
       <c r="Q27" t="n">
-        <v>3668.242947377513</v>
+        <v>2391.700393923186</v>
       </c>
       <c r="R27" t="n">
-        <v>3644.325904275577</v>
+        <v>2367.78335082125</v>
       </c>
       <c r="S27" t="n">
-        <v>3509.395227175446</v>
+        <v>2232.852673721119</v>
       </c>
       <c r="T27" t="n">
-        <v>3332.411415374354</v>
+        <v>2055.868861920027</v>
       </c>
       <c r="U27" t="n">
-        <v>3122.348272052996</v>
+        <v>1845.80571859867</v>
       </c>
       <c r="V27" t="n">
-        <v>2899.808270424063</v>
+        <v>1623.265716969737</v>
       </c>
       <c r="W27" t="n">
-        <v>2669.69102455735</v>
+        <v>1393.148471103023</v>
       </c>
       <c r="X27" t="n">
-        <v>2480.383946907361</v>
+        <v>1203.841393453035</v>
       </c>
       <c r="Y27" t="n">
-        <v>2301.069729982868</v>
+        <v>1024.527176528542</v>
       </c>
     </row>
     <row r="28">
@@ -6358,13 +6358,13 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>504.330098198535</v>
+        <v>504.3300981985349</v>
       </c>
       <c r="C28" t="n">
-        <v>429.0656615517126</v>
+        <v>429.0656615517125</v>
       </c>
       <c r="D28" t="n">
-        <v>368.3732297414157</v>
+        <v>368.3732297414156</v>
       </c>
       <c r="E28" t="n">
         <v>307.7550988878065</v>
@@ -6385,10 +6385,10 @@
         <v>136.6424780796861</v>
       </c>
       <c r="K28" t="n">
-        <v>311.5288809192011</v>
+        <v>311.5288809192012</v>
       </c>
       <c r="L28" t="n">
-        <v>568.7078825225742</v>
+        <v>568.7078825225743</v>
       </c>
       <c r="M28" t="n">
         <v>848.0508225904116</v>
@@ -6424,10 +6424,10 @@
         <v>861.9084564286447</v>
       </c>
       <c r="X28" t="n">
-        <v>722.7688154988163</v>
+        <v>722.7688154988161</v>
       </c>
       <c r="Y28" t="n">
-        <v>594.5974356026479</v>
+        <v>594.5974356026478</v>
       </c>
     </row>
     <row r="29">
@@ -6437,22 +6437,22 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1882.457606424153</v>
+        <v>1882.457606424151</v>
       </c>
       <c r="C29" t="n">
-        <v>1584.222786214272</v>
+        <v>1584.22278621427</v>
       </c>
       <c r="D29" t="n">
-        <v>1293.722338718128</v>
+        <v>1293.722338718127</v>
       </c>
       <c r="E29" t="n">
-        <v>986.0794951218604</v>
+        <v>986.07949512186</v>
       </c>
       <c r="F29" t="n">
-        <v>664.1257379390265</v>
+        <v>664.1257379390261</v>
       </c>
       <c r="G29" t="n">
-        <v>345.9036637142181</v>
+        <v>345.9036637142176</v>
       </c>
       <c r="H29" t="n">
         <v>116.7612945678971</v>
@@ -6473,13 +6473,13 @@
         <v>1832.390418388518</v>
       </c>
       <c r="N29" t="n">
-        <v>2453.253063755554</v>
+        <v>2360.20170202598</v>
       </c>
       <c r="O29" t="n">
-        <v>2986.344026377456</v>
+        <v>2893.292664647882</v>
       </c>
       <c r="P29" t="n">
-        <v>3427.582880238551</v>
+        <v>3334.531518508978</v>
       </c>
       <c r="Q29" t="n">
         <v>3612.4284403795</v>
@@ -6488,25 +6488,25 @@
         <v>3668.242947377513</v>
       </c>
       <c r="S29" t="n">
-        <v>3596.670073605752</v>
+        <v>3596.670073605751</v>
       </c>
       <c r="T29" t="n">
-        <v>3468.110152452357</v>
+        <v>3468.110152452356</v>
       </c>
       <c r="U29" t="n">
-        <v>3307.298104174144</v>
+        <v>3307.298104174143</v>
       </c>
       <c r="V29" t="n">
-        <v>3060.131976164851</v>
+        <v>3060.13197616485</v>
       </c>
       <c r="W29" t="n">
-        <v>2784.073622420327</v>
+        <v>2784.073622420326</v>
       </c>
       <c r="X29" t="n">
-        <v>2489.561698640572</v>
+        <v>2489.561698640571</v>
       </c>
       <c r="Y29" t="n">
-        <v>2188.011670848361</v>
+        <v>2188.01167084836</v>
       </c>
     </row>
     <row r="30">
@@ -6540,25 +6540,25 @@
         <v>73.36485894755026</v>
       </c>
       <c r="J30" t="n">
-        <v>73.36485894755026</v>
+        <v>186.4798411672776</v>
       </c>
       <c r="K30" t="n">
-        <v>73.36485894755026</v>
+        <v>506.2189872295041</v>
       </c>
       <c r="L30" t="n">
-        <v>556.9309448458635</v>
+        <v>989.7850731278173</v>
       </c>
       <c r="M30" t="n">
-        <v>1184.702594472545</v>
+        <v>1235.193651060917</v>
       </c>
       <c r="N30" t="n">
-        <v>1840.480565683104</v>
+        <v>1235.193651060917</v>
       </c>
       <c r="O30" t="n">
-        <v>2357.000848274085</v>
+        <v>1751.713933651898</v>
       </c>
       <c r="P30" t="n">
-        <v>2357.000848274085</v>
+        <v>2157.335302368295</v>
       </c>
       <c r="Q30" t="n">
         <v>2391.700393923186</v>
@@ -6595,40 +6595,40 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>504.3300981985352</v>
+        <v>504.3300981985348</v>
       </c>
       <c r="C31" t="n">
-        <v>429.0656615517128</v>
+        <v>429.0656615517124</v>
       </c>
       <c r="D31" t="n">
-        <v>368.3732297414156</v>
+        <v>368.3732297414155</v>
       </c>
       <c r="E31" t="n">
-        <v>307.7550988878068</v>
+        <v>307.7550988878064</v>
       </c>
       <c r="F31" t="n">
-        <v>245.3698453879681</v>
+        <v>245.3698453879676</v>
       </c>
       <c r="G31" t="n">
-        <v>172.056472774602</v>
+        <v>172.0564727746016</v>
       </c>
       <c r="H31" t="n">
-        <v>111.5186030232843</v>
+        <v>111.518603023284</v>
       </c>
       <c r="I31" t="n">
         <v>73.36485894755026</v>
       </c>
       <c r="J31" t="n">
-        <v>136.6424780796861</v>
+        <v>136.6424780796862</v>
       </c>
       <c r="K31" t="n">
-        <v>311.5288809192012</v>
+        <v>311.5288809192014</v>
       </c>
       <c r="L31" t="n">
-        <v>568.7078825225741</v>
+        <v>568.7078825225744</v>
       </c>
       <c r="M31" t="n">
-        <v>848.0508225904115</v>
+        <v>848.0508225904117</v>
       </c>
       <c r="N31" t="n">
         <v>1124.291818351194</v>
@@ -6643,7 +6643,7 @@
         <v>1689.449032728251</v>
       </c>
       <c r="R31" t="n">
-        <v>1660.488724648017</v>
+        <v>1660.488724648016</v>
       </c>
       <c r="S31" t="n">
         <v>1552.613322117754</v>
@@ -6655,16 +6655,16 @@
         <v>1221.336841102266</v>
       </c>
       <c r="V31" t="n">
-        <v>1050.298177210279</v>
+        <v>1050.298177210278</v>
       </c>
       <c r="W31" t="n">
-        <v>861.908456428645</v>
+        <v>861.9084564286445</v>
       </c>
       <c r="X31" t="n">
-        <v>722.7688154988165</v>
+        <v>722.768815498816</v>
       </c>
       <c r="Y31" t="n">
-        <v>594.5974356026481</v>
+        <v>594.5974356026477</v>
       </c>
     </row>
     <row r="32">
@@ -6674,76 +6674,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1791.35112422213</v>
+        <v>1743.798875918589</v>
       </c>
       <c r="C32" t="n">
-        <v>1505.586185654425</v>
+        <v>1464.542485303045</v>
       </c>
       <c r="D32" t="n">
-        <v>1227.555619800457</v>
+        <v>1193.020467401238</v>
       </c>
       <c r="E32" t="n">
-        <v>932.3826578463666</v>
+        <v>904.3560533993077</v>
       </c>
       <c r="F32" t="n">
-        <v>622.8987823057089</v>
+        <v>601.3807258108106</v>
       </c>
       <c r="G32" t="n">
-        <v>317.1465897230767</v>
+        <v>302.137081180339</v>
       </c>
       <c r="H32" t="n">
-        <v>100.4741022189321</v>
+        <v>91.97314162835497</v>
       </c>
       <c r="I32" t="n">
-        <v>69.5475482407616</v>
+        <v>67.55513560234508</v>
       </c>
       <c r="J32" t="n">
-        <v>214.1973211495897</v>
+        <v>212.2049085111732</v>
       </c>
       <c r="K32" t="n">
-        <v>621.3530052914988</v>
+        <v>682.8393851136179</v>
       </c>
       <c r="L32" t="n">
-        <v>1219.946389737098</v>
+        <v>1176.159676832147</v>
       </c>
       <c r="M32" t="n">
-        <v>1765.947289781678</v>
+        <v>1722.160576876727</v>
       </c>
       <c r="N32" t="n">
-        <v>2399.031666146211</v>
+        <v>2249.971860514189</v>
       </c>
       <c r="O32" t="n">
-        <v>2839.071267038539</v>
+        <v>2733.071607269801</v>
       </c>
       <c r="P32" t="n">
-        <v>3292.531851897131</v>
+        <v>3192.911219976305</v>
       </c>
       <c r="Q32" t="n">
-        <v>3477.37741203808</v>
+        <v>3377.756780117254</v>
       </c>
       <c r="R32" t="n">
-        <v>3477.37741203808</v>
+        <v>3377.756780117254</v>
       </c>
       <c r="S32" t="n">
-        <v>3418.274419908495</v>
+        <v>3325.16233593983</v>
       </c>
       <c r="T32" t="n">
-        <v>3302.184380397277</v>
+        <v>3215.580844380772</v>
       </c>
       <c r="U32" t="n">
-        <v>3153.84221376124</v>
+        <v>3073.747225696896</v>
       </c>
       <c r="V32" t="n">
-        <v>2919.145967394123</v>
+        <v>2845.55952728194</v>
       </c>
       <c r="W32" t="n">
-        <v>2655.557495291775</v>
+        <v>2588.479603131752</v>
       </c>
       <c r="X32" t="n">
-        <v>2373.515453154196</v>
+        <v>2312.946108946334</v>
       </c>
       <c r="Y32" t="n">
-        <v>2084.435307004162</v>
+        <v>2030.374510748461</v>
       </c>
     </row>
     <row r="33">
@@ -6753,76 +6753,76 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>868.9135313807926</v>
+        <v>866.9211187423761</v>
       </c>
       <c r="C33" t="n">
-        <v>718.2593009408848</v>
+        <v>716.2668883024683</v>
       </c>
       <c r="D33" t="n">
-        <v>588.1703335623652</v>
+        <v>586.1779209239486</v>
       </c>
       <c r="E33" t="n">
-        <v>451.7238426732528</v>
+        <v>449.7314300348363</v>
       </c>
       <c r="F33" t="n">
-        <v>327.2920365563846</v>
+        <v>325.2996239179681</v>
       </c>
       <c r="G33" t="n">
-        <v>207.2322186282491</v>
+        <v>205.2398059898326</v>
       </c>
       <c r="H33" t="n">
-        <v>118.93480222885</v>
+        <v>116.9423895904335</v>
       </c>
       <c r="I33" t="n">
-        <v>69.5475482407616</v>
+        <v>67.55513560234508</v>
       </c>
       <c r="J33" t="n">
-        <v>69.5475482407616</v>
+        <v>180.6701178220725</v>
       </c>
       <c r="K33" t="n">
-        <v>389.2866943029881</v>
+        <v>500.4092638842989</v>
       </c>
       <c r="L33" t="n">
-        <v>872.8527802013014</v>
+        <v>983.9753497826121</v>
       </c>
       <c r="M33" t="n">
-        <v>872.8527802013014</v>
+        <v>1229.383927715712</v>
       </c>
       <c r="N33" t="n">
-        <v>1231.376340354128</v>
+        <v>1229.383927715712</v>
       </c>
       <c r="O33" t="n">
-        <v>1747.89662294511</v>
+        <v>1745.904210306693</v>
       </c>
       <c r="P33" t="n">
-        <v>2153.517991661507</v>
+        <v>2151.525579023091</v>
       </c>
       <c r="Q33" t="n">
-        <v>2387.883083216398</v>
+        <v>2385.890670577981</v>
       </c>
       <c r="R33" t="n">
-        <v>2363.966040114462</v>
+        <v>2361.973627476046</v>
       </c>
       <c r="S33" t="n">
-        <v>2229.035363014331</v>
+        <v>2227.042950375915</v>
       </c>
       <c r="T33" t="n">
-        <v>2052.051551213239</v>
+        <v>2050.059138574823</v>
       </c>
       <c r="U33" t="n">
-        <v>1841.988407891881</v>
+        <v>1839.995995253465</v>
       </c>
       <c r="V33" t="n">
-        <v>1619.448406262948</v>
+        <v>1617.455993624532</v>
       </c>
       <c r="W33" t="n">
-        <v>1389.331160396235</v>
+        <v>1387.338747757819</v>
       </c>
       <c r="X33" t="n">
-        <v>1200.024082746247</v>
+        <v>1198.03167010783</v>
       </c>
       <c r="Y33" t="n">
-        <v>1020.709865821754</v>
+        <v>1018.717453183337</v>
       </c>
     </row>
     <row r="34">
@@ -6832,76 +6832,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>413.2236159965123</v>
+        <v>365.6713676929713</v>
       </c>
       <c r="C34" t="n">
-        <v>350.4290609918662</v>
+        <v>309.3853606404858</v>
       </c>
       <c r="D34" t="n">
-        <v>302.2065108237455</v>
+        <v>267.6713584245259</v>
       </c>
       <c r="E34" t="n">
-        <v>254.0582616123127</v>
+        <v>226.0316571652536</v>
       </c>
       <c r="F34" t="n">
-        <v>204.1428897546503</v>
+        <v>182.6248332597519</v>
       </c>
       <c r="G34" t="n">
-        <v>143.2993987834604</v>
+        <v>128.2898902407227</v>
       </c>
       <c r="H34" t="n">
-        <v>95.23141067431906</v>
+        <v>86.73045008374191</v>
       </c>
       <c r="I34" t="n">
-        <v>69.5475482407616</v>
+        <v>67.55513560234508</v>
       </c>
       <c r="J34" t="n">
-        <v>145.0468983703944</v>
+        <v>67.55513560234508</v>
       </c>
       <c r="K34" t="n">
-        <v>226.8819394803363</v>
+        <v>261.0422972872699</v>
       </c>
       <c r="L34" t="n">
-        <v>496.2826720812063</v>
+        <v>536.8220577360526</v>
       </c>
       <c r="M34" t="n">
-        <v>682.5742504194703</v>
+        <v>799.1395520791259</v>
       </c>
       <c r="N34" t="n">
-        <v>971.0369771777498</v>
+        <v>982.3291861103351</v>
       </c>
       <c r="O34" t="n">
-        <v>1239.014836946528</v>
+        <v>1145.033953152043</v>
       </c>
       <c r="P34" t="n">
-        <v>1464.164095450177</v>
+        <v>1264.910118928622</v>
       </c>
       <c r="Q34" t="n">
-        <v>1486.113615746642</v>
+        <v>1379.984435873655</v>
       </c>
       <c r="R34" t="n">
-        <v>1469.623189308584</v>
+        <v>1370.002557387758</v>
       </c>
       <c r="S34" t="n">
-        <v>1374.217668420498</v>
+        <v>1281.105584451832</v>
       </c>
       <c r="T34" t="n">
-        <v>1245.909179518097</v>
+        <v>1159.305643501592</v>
       </c>
       <c r="U34" t="n">
-        <v>1067.880950689362</v>
+        <v>987.785962625018</v>
       </c>
       <c r="V34" t="n">
-        <v>909.312168439551</v>
+        <v>835.7257283273675</v>
       </c>
       <c r="W34" t="n">
-        <v>733.3923293000933</v>
+        <v>666.3144371400704</v>
       </c>
       <c r="X34" t="n">
-        <v>606.722570012441</v>
+        <v>546.1532258045787</v>
       </c>
       <c r="Y34" t="n">
-        <v>491.021071758449</v>
+        <v>436.9602755027473</v>
       </c>
     </row>
     <row r="35">
@@ -6911,25 +6911,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1614.059487414177</v>
+        <v>1614.059487414178</v>
       </c>
       <c r="C35" t="n">
-        <v>1352.560722599515</v>
+        <v>1352.560722599517</v>
       </c>
       <c r="D35" t="n">
-        <v>1098.796330498592</v>
+        <v>1098.796330498593</v>
       </c>
       <c r="E35" t="n">
-        <v>827.8895422975447</v>
+        <v>827.8895422975459</v>
       </c>
       <c r="F35" t="n">
-        <v>542.6718405099309</v>
+        <v>542.6718405099321</v>
       </c>
       <c r="G35" t="n">
-        <v>261.1858216803425</v>
+        <v>261.1858216803437</v>
       </c>
       <c r="H35" t="n">
-        <v>68.77950792924223</v>
+        <v>68.77950792924229</v>
       </c>
       <c r="I35" t="n">
         <v>62.11912770411553</v>
@@ -6962,7 +6962,7 @@
         <v>3105.956385205776</v>
       </c>
       <c r="S35" t="n">
-        <v>3071.119566829236</v>
+        <v>3071.119566829235</v>
       </c>
       <c r="T35" t="n">
         <v>2979.295701071061</v>
@@ -6974,10 +6974,10 @@
         <v>2644.789635573994</v>
       </c>
       <c r="W35" t="n">
-        <v>2405.46733722469</v>
+        <v>2405.467337224691</v>
       </c>
       <c r="X35" t="n">
-        <v>2147.691468840155</v>
+        <v>2147.691468840156</v>
       </c>
       <c r="Y35" t="n">
         <v>1882.877496443165</v>
@@ -7014,25 +7014,25 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J36" t="n">
-        <v>62.11912770411553</v>
+        <v>175.2341099238429</v>
       </c>
       <c r="K36" t="n">
-        <v>96.81867335321709</v>
+        <v>494.9732559860694</v>
       </c>
       <c r="L36" t="n">
-        <v>580.3847592515303</v>
+        <v>978.5393418843826</v>
       </c>
       <c r="M36" t="n">
-        <v>1208.156408878212</v>
+        <v>1223.947919817482</v>
       </c>
       <c r="N36" t="n">
-        <v>1863.93438008877</v>
+        <v>1223.947919817482</v>
       </c>
       <c r="O36" t="n">
-        <v>2380.454662679751</v>
+        <v>1740.468202408463</v>
       </c>
       <c r="P36" t="n">
-        <v>2380.454662679751</v>
+        <v>2146.089571124861</v>
       </c>
       <c r="Q36" t="n">
         <v>2380.454662679751</v>
@@ -7069,76 +7069,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>235.9319791885594</v>
+        <v>235.9319791885598</v>
       </c>
       <c r="C37" t="n">
-        <v>197.4035979369571</v>
+        <v>197.4035979369575</v>
       </c>
       <c r="D37" t="n">
-        <v>173.4472215218803</v>
+        <v>173.4472215218806</v>
       </c>
       <c r="E37" t="n">
-        <v>149.5651460634913</v>
+        <v>149.5651460634915</v>
       </c>
       <c r="F37" t="n">
-        <v>123.9159479588727</v>
+        <v>123.9159479588729</v>
       </c>
       <c r="G37" t="n">
-        <v>87.33863074072673</v>
+        <v>87.33863074072684</v>
       </c>
       <c r="H37" t="n">
-        <v>63.53681638462917</v>
+        <v>63.53681638462923</v>
       </c>
       <c r="I37" t="n">
         <v>62.11912770411553</v>
       </c>
       <c r="J37" t="n">
-        <v>161.4017547291066</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="K37" t="n">
-        <v>270.9691711012525</v>
+        <v>273.0105384364859</v>
       </c>
       <c r="L37" t="n">
-        <v>435.0968109750523</v>
+        <v>437.1381783102856</v>
       </c>
       <c r="M37" t="n">
-        <v>621.3883893133163</v>
+        <v>623.4297566485496</v>
       </c>
       <c r="N37" t="n">
-        <v>804.5780233445255</v>
+        <v>806.6193906797589</v>
       </c>
       <c r="O37" t="n">
-        <v>967.2827903862335</v>
+        <v>969.3241577214669</v>
       </c>
       <c r="P37" t="n">
-        <v>1087.158956162812</v>
+        <v>1089.200323498045</v>
       </c>
       <c r="Q37" t="n">
-        <v>1090.581152532863</v>
+        <v>1092.622519868096</v>
       </c>
       <c r="R37" t="n">
-        <v>1098.20216247628</v>
+        <v>1098.202162476281</v>
       </c>
       <c r="S37" t="n">
-        <v>1027.062815341238</v>
+        <v>1027.062815341239</v>
       </c>
       <c r="T37" t="n">
-        <v>923.0205001918806</v>
+        <v>923.0205001918814</v>
       </c>
       <c r="U37" t="n">
-        <v>769.25844511619</v>
+        <v>769.2584451161907</v>
       </c>
       <c r="V37" t="n">
-        <v>634.9558366194227</v>
+        <v>634.9558366194234</v>
       </c>
       <c r="W37" t="n">
-        <v>483.3021712330088</v>
+        <v>483.3021712330094</v>
       </c>
       <c r="X37" t="n">
-        <v>380.8985856984004</v>
+        <v>380.898585698401</v>
       </c>
       <c r="Y37" t="n">
-        <v>289.4632611974523</v>
+        <v>289.4632611974527</v>
       </c>
     </row>
     <row r="38">
@@ -7148,7 +7148,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1614.059487414177</v>
+        <v>1614.059487414178</v>
       </c>
       <c r="C38" t="n">
         <v>1352.560722599516</v>
@@ -7211,13 +7211,13 @@
         <v>2644.789635573994</v>
       </c>
       <c r="W38" t="n">
-        <v>2405.46733722469</v>
+        <v>2405.467337224691</v>
       </c>
       <c r="X38" t="n">
         <v>2147.691468840156</v>
       </c>
       <c r="Y38" t="n">
-        <v>1882.877496443165</v>
+        <v>1882.877496443166</v>
       </c>
     </row>
     <row r="39">
@@ -7257,7 +7257,7 @@
         <v>494.9732559860694</v>
       </c>
       <c r="L39" t="n">
-        <v>596.176270190801</v>
+        <v>978.5393418843826</v>
       </c>
       <c r="M39" t="n">
         <v>1223.947919817482</v>
@@ -7342,16 +7342,16 @@
         <v>494.3733870261212</v>
       </c>
       <c r="N40" t="n">
-        <v>677.5630210573304</v>
+        <v>804.5780233445255</v>
       </c>
       <c r="O40" t="n">
-        <v>969.3241577214669</v>
+        <v>967.2827903862335</v>
       </c>
       <c r="P40" t="n">
-        <v>1089.200323498045</v>
+        <v>1087.158956162812</v>
       </c>
       <c r="Q40" t="n">
-        <v>1098.20216247628</v>
+        <v>1090.581152532863</v>
       </c>
       <c r="R40" t="n">
         <v>1098.20216247628</v>
@@ -7436,13 +7436,13 @@
         <v>3105.956385205776</v>
       </c>
       <c r="S41" t="n">
-        <v>3071.119566829236</v>
+        <v>3071.119566829235</v>
       </c>
       <c r="T41" t="n">
-        <v>2979.295701071061</v>
+        <v>2979.29570107106</v>
       </c>
       <c r="U41" t="n">
-        <v>2855.219708188068</v>
+        <v>2855.219708188067</v>
       </c>
       <c r="V41" t="n">
         <v>2644.789635573994</v>
@@ -7497,10 +7497,10 @@
         <v>978.5393418843826</v>
       </c>
       <c r="M42" t="n">
-        <v>1606.310991511064</v>
+        <v>1223.947919817482</v>
       </c>
       <c r="N42" t="n">
-        <v>1606.310991511064</v>
+        <v>1223.947919817482</v>
       </c>
       <c r="O42" t="n">
         <v>1740.468202408463</v>
@@ -7570,25 +7570,25 @@
         <v>161.4017547291066</v>
       </c>
       <c r="K43" t="n">
-        <v>243.2367958390485</v>
+        <v>270.9691711012525</v>
       </c>
       <c r="L43" t="n">
-        <v>407.3644357128483</v>
+        <v>435.0968109750523</v>
       </c>
       <c r="M43" t="n">
-        <v>593.6560140511123</v>
+        <v>621.3883893133163</v>
       </c>
       <c r="N43" t="n">
-        <v>812.1990332879427</v>
+        <v>804.5780233445255</v>
       </c>
       <c r="O43" t="n">
-        <v>974.9038003296507</v>
+        <v>967.2827903862335</v>
       </c>
       <c r="P43" t="n">
-        <v>1094.779966106229</v>
+        <v>1087.158956162812</v>
       </c>
       <c r="Q43" t="n">
-        <v>1098.20216247628</v>
+        <v>1090.581152532863</v>
       </c>
       <c r="R43" t="n">
         <v>1098.20216247628</v>
@@ -7637,10 +7637,10 @@
         <v>542.6718405099314</v>
       </c>
       <c r="G44" t="n">
-        <v>261.1858216803435</v>
+        <v>261.185821680343</v>
       </c>
       <c r="H44" t="n">
-        <v>68.77950792924219</v>
+        <v>68.77950792924226</v>
       </c>
       <c r="I44" t="n">
         <v>62.11912770411553</v>
@@ -7670,7 +7670,7 @@
         <v>3105.956385205776</v>
       </c>
       <c r="R44" t="n">
-        <v>3105.956385205777</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="S44" t="n">
         <v>3071.119566829236</v>
@@ -7679,13 +7679,13 @@
         <v>2979.295701071061</v>
       </c>
       <c r="U44" t="n">
-        <v>2855.219708188067</v>
+        <v>2855.219708188068</v>
       </c>
       <c r="V44" t="n">
-        <v>2644.789635573994</v>
+        <v>2644.789635573995</v>
       </c>
       <c r="W44" t="n">
-        <v>2405.46733722469</v>
+        <v>2405.467337224691</v>
       </c>
       <c r="X44" t="n">
         <v>2147.691468840156</v>
@@ -7734,10 +7734,10 @@
         <v>978.5393418843826</v>
       </c>
       <c r="M45" t="n">
-        <v>1606.310991511064</v>
+        <v>1223.947919817482</v>
       </c>
       <c r="N45" t="n">
-        <v>1740.468202408463</v>
+        <v>1223.947919817482</v>
       </c>
       <c r="O45" t="n">
         <v>1740.468202408463</v>
@@ -7780,25 +7780,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>235.931979188559</v>
+        <v>235.9319791885596</v>
       </c>
       <c r="C46" t="n">
-        <v>197.4035979369568</v>
+        <v>197.4035979369573</v>
       </c>
       <c r="D46" t="n">
-        <v>173.44722152188</v>
+        <v>173.4472215218805</v>
       </c>
       <c r="E46" t="n">
-        <v>149.5651460634911</v>
+        <v>149.5651460634914</v>
       </c>
       <c r="F46" t="n">
-        <v>123.9159479588726</v>
+        <v>123.9159479588728</v>
       </c>
       <c r="G46" t="n">
-        <v>87.33863074072661</v>
+        <v>87.33863074072679</v>
       </c>
       <c r="H46" t="n">
-        <v>63.53681638462912</v>
+        <v>63.5368163846292</v>
       </c>
       <c r="I46" t="n">
         <v>62.11912770411553</v>
@@ -7807,49 +7807,49 @@
         <v>62.11912770411553</v>
       </c>
       <c r="K46" t="n">
-        <v>149.5338114222403</v>
+        <v>143.9541688140574</v>
       </c>
       <c r="L46" t="n">
-        <v>442.7178209184686</v>
+        <v>308.0818086878572</v>
       </c>
       <c r="M46" t="n">
-        <v>629.0093992567326</v>
+        <v>494.3733870261212</v>
       </c>
       <c r="N46" t="n">
-        <v>812.1990332879418</v>
+        <v>677.5630210573304</v>
       </c>
       <c r="O46" t="n">
-        <v>974.9038003296498</v>
+        <v>840.2677880990384</v>
       </c>
       <c r="P46" t="n">
-        <v>1094.779966106228</v>
+        <v>1087.158956162813</v>
       </c>
       <c r="Q46" t="n">
-        <v>1098.202162476279</v>
+        <v>1090.581152532863</v>
       </c>
       <c r="R46" t="n">
-        <v>1098.202162476279</v>
+        <v>1098.202162476281</v>
       </c>
       <c r="S46" t="n">
-        <v>1027.062815341237</v>
+        <v>1027.062815341238</v>
       </c>
       <c r="T46" t="n">
-        <v>923.0205001918799</v>
+        <v>923.020500191881</v>
       </c>
       <c r="U46" t="n">
-        <v>769.2584451161894</v>
+        <v>769.2584451161904</v>
       </c>
       <c r="V46" t="n">
-        <v>634.9558366194221</v>
+        <v>634.9558366194231</v>
       </c>
       <c r="W46" t="n">
-        <v>483.3021712330083</v>
+        <v>483.3021712330091</v>
       </c>
       <c r="X46" t="n">
-        <v>380.8985856983999</v>
+        <v>380.8985856984007</v>
       </c>
       <c r="Y46" t="n">
-        <v>289.4632611974517</v>
+        <v>289.4632611974525</v>
       </c>
     </row>
   </sheetData>
@@ -7976,28 +7976,28 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>263.7907196684351</v>
+        <v>117.6798379423461</v>
       </c>
       <c r="K2" t="n">
         <v>505.666843611017</v>
       </c>
       <c r="L2" t="n">
-        <v>651.5514946987026</v>
+        <v>455.5551249650608</v>
       </c>
       <c r="M2" t="n">
-        <v>693.4207940321642</v>
+        <v>668.5156360519577</v>
       </c>
       <c r="N2" t="n">
-        <v>564.5028797591303</v>
+        <v>667.9090757920145</v>
       </c>
       <c r="O2" t="n">
         <v>149.5638374240964</v>
       </c>
       <c r="P2" t="n">
-        <v>150.3014472409252</v>
+        <v>502.0059847475129</v>
       </c>
       <c r="Q2" t="n">
-        <v>331.2113854294513</v>
+        <v>144.4986984183922</v>
       </c>
       <c r="R2" t="n">
         <v>102.5176150018526</v>
@@ -8055,28 +8055,28 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J3" t="n">
-        <v>196.7020151310378</v>
+        <v>82.44445733333335</v>
       </c>
       <c r="K3" t="n">
         <v>412.5657697396227</v>
       </c>
       <c r="L3" t="n">
-        <v>90.06034685691823</v>
+        <v>578.5109386733963</v>
       </c>
       <c r="M3" t="n">
-        <v>96.09182324999584</v>
+        <v>92.38712204931191</v>
       </c>
       <c r="N3" t="n">
-        <v>629.0678552886035</v>
+        <v>604.162697308397</v>
       </c>
       <c r="O3" t="n">
-        <v>614.4252180716981</v>
+        <v>611.4781433431193</v>
       </c>
       <c r="P3" t="n">
-        <v>496.801919078302</v>
+        <v>292.2838717694834</v>
       </c>
       <c r="Q3" t="n">
-        <v>327.7205688679246</v>
+        <v>90.98815315591399</v>
       </c>
       <c r="R3" t="n">
         <v>71.01380490566048</v>
@@ -8213,28 +8213,28 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>263.7907196684351</v>
+        <v>117.6798379423461</v>
       </c>
       <c r="K5" t="n">
         <v>505.666843611017</v>
       </c>
       <c r="L5" t="n">
-        <v>651.5514946987026</v>
+        <v>620.5469754605895</v>
       </c>
       <c r="M5" t="n">
-        <v>693.4207940321642</v>
+        <v>668.5156360519577</v>
       </c>
       <c r="N5" t="n">
-        <v>149.1184913377841</v>
+        <v>667.9090757920145</v>
       </c>
       <c r="O5" t="n">
-        <v>594.0482827698827</v>
+        <v>149.5638374240964</v>
       </c>
       <c r="P5" t="n">
         <v>150.3014472409252</v>
       </c>
       <c r="Q5" t="n">
-        <v>302.1113285050111</v>
+        <v>331.2113854294513</v>
       </c>
       <c r="R5" t="n">
         <v>102.5176150018526</v>
@@ -8292,28 +8292,28 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J6" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K6" t="n">
-        <v>89.59693533333335</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L6" t="n">
         <v>578.5109386733963</v>
       </c>
       <c r="M6" t="n">
-        <v>636.0828644837487</v>
+        <v>574.4602701392391</v>
       </c>
       <c r="N6" t="n">
-        <v>629.0678552886035</v>
+        <v>85.37211285416666</v>
       </c>
       <c r="O6" t="n">
-        <v>614.4252180716981</v>
+        <v>92.68755888888889</v>
       </c>
       <c r="P6" t="n">
-        <v>87.08336481931465</v>
+        <v>496.801919078302</v>
       </c>
       <c r="Q6" t="n">
-        <v>146.2238822806749</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R6" t="n">
         <v>71.01380490566048</v>
@@ -8453,7 +8453,7 @@
         <v>263.7907196684351</v>
       </c>
       <c r="K8" t="n">
-        <v>505.666843611017</v>
+        <v>217.3212662032442</v>
       </c>
       <c r="L8" t="n">
         <v>651.5514946987026</v>
@@ -8462,7 +8462,7 @@
         <v>701.2411122488187</v>
       </c>
       <c r="N8" t="n">
-        <v>580.6283116859817</v>
+        <v>682.2612020826953</v>
       </c>
       <c r="O8" t="n">
         <v>149.5638374240964</v>
@@ -8471,7 +8471,7 @@
         <v>502.0059847475129</v>
       </c>
       <c r="Q8" t="n">
-        <v>144.4986984183922</v>
+        <v>331.2113854294513</v>
       </c>
       <c r="R8" t="n">
         <v>102.5176150018526</v>
@@ -8532,25 +8532,25 @@
         <v>196.7020151310378</v>
       </c>
       <c r="K9" t="n">
-        <v>124.0799396297078</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L9" t="n">
         <v>578.5109386733963</v>
       </c>
       <c r="M9" t="n">
-        <v>683.7992483186069</v>
+        <v>340.274574506989</v>
       </c>
       <c r="N9" t="n">
-        <v>676.7842391234617</v>
+        <v>85.37211285416666</v>
       </c>
       <c r="O9" t="n">
         <v>614.4252180716981</v>
       </c>
       <c r="P9" t="n">
-        <v>87.08336481931465</v>
+        <v>496.801919078302</v>
       </c>
       <c r="Q9" t="n">
-        <v>90.98815315591399</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R9" t="n">
         <v>71.01380490566048</v>
@@ -8708,7 +8708,7 @@
         <v>502.0059847475129</v>
       </c>
       <c r="Q11" t="n">
-        <v>331.2113854294514</v>
+        <v>331.2113854294513</v>
       </c>
       <c r="R11" t="n">
         <v>102.5176150018526</v>
@@ -9006,25 +9006,25 @@
         <v>196.7020151310378</v>
       </c>
       <c r="K15" t="n">
-        <v>89.59693533333335</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L15" t="n">
         <v>578.5109386733963</v>
       </c>
       <c r="M15" t="n">
-        <v>647.2923877624991</v>
+        <v>340.2745745069883</v>
       </c>
       <c r="N15" t="n">
-        <v>747.7741039759435</v>
+        <v>85.37211285416666</v>
       </c>
       <c r="O15" t="n">
         <v>614.4252180716981</v>
       </c>
       <c r="P15" t="n">
-        <v>87.08336481931465</v>
+        <v>496.801919078302</v>
       </c>
       <c r="Q15" t="n">
-        <v>90.98815315591399</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R15" t="n">
         <v>71.01380490566048</v>
@@ -9249,13 +9249,13 @@
         <v>578.5109386733963</v>
       </c>
       <c r="M18" t="n">
-        <v>92.38712204931191</v>
+        <v>340.2745745069883</v>
       </c>
       <c r="N18" t="n">
-        <v>747.7741039759435</v>
+        <v>85.37211285416666</v>
       </c>
       <c r="O18" t="n">
-        <v>199.9106794075977</v>
+        <v>614.4252180716981</v>
       </c>
       <c r="P18" t="n">
         <v>496.801919078302</v>
@@ -9407,13 +9407,13 @@
         <v>651.5514946987026</v>
       </c>
       <c r="M20" t="n">
-        <v>701.2411122488197</v>
+        <v>701.2411122488187</v>
       </c>
       <c r="N20" t="n">
         <v>682.2612020826953</v>
       </c>
       <c r="O20" t="n">
-        <v>594.0482827698827</v>
+        <v>594.0482827698837</v>
       </c>
       <c r="P20" t="n">
         <v>502.0059847475129</v>
@@ -9477,7 +9477,7 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J21" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K21" t="n">
         <v>412.5657697396227</v>
@@ -9486,7 +9486,7 @@
         <v>578.5109386733963</v>
       </c>
       <c r="M21" t="n">
-        <v>454.5321323046928</v>
+        <v>340.2745745069883</v>
       </c>
       <c r="N21" t="n">
         <v>85.37211285416666</v>
@@ -9969,7 +9969,7 @@
         <v>614.4252180716981</v>
       </c>
       <c r="P27" t="n">
-        <v>347.3090098473019</v>
+        <v>347.309009847301</v>
       </c>
       <c r="Q27" t="n">
         <v>90.98815315591399</v>
@@ -10188,28 +10188,28 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J30" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K30" t="n">
-        <v>89.59693533333335</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L30" t="n">
         <v>578.5109386733963</v>
       </c>
       <c r="M30" t="n">
-        <v>726.4998994499999</v>
+        <v>340.274574506988</v>
       </c>
       <c r="N30" t="n">
-        <v>747.7741039759435</v>
+        <v>85.37211285416666</v>
       </c>
       <c r="O30" t="n">
         <v>614.4252180716981</v>
       </c>
       <c r="P30" t="n">
-        <v>87.08336481931465</v>
+        <v>496.801919078302</v>
       </c>
       <c r="Q30" t="n">
-        <v>126.0381992661173</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R30" t="n">
         <v>71.01380490566048</v>
@@ -10425,7 +10425,7 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J33" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K33" t="n">
         <v>412.5657697396227</v>
@@ -10434,10 +10434,10 @@
         <v>578.5109386733963</v>
       </c>
       <c r="M33" t="n">
-        <v>92.38712204931191</v>
+        <v>340.2745745069888</v>
       </c>
       <c r="N33" t="n">
-        <v>447.5171231095475</v>
+        <v>85.37211285416666</v>
       </c>
       <c r="O33" t="n">
         <v>614.4252180716981</v>
@@ -10662,28 +10662,28 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J36" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K36" t="n">
-        <v>124.646981443537</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L36" t="n">
         <v>578.5109386733963</v>
       </c>
       <c r="M36" t="n">
-        <v>726.4998994499999</v>
+        <v>340.2745745069883</v>
       </c>
       <c r="N36" t="n">
-        <v>747.7741039759435</v>
+        <v>85.37211285416666</v>
       </c>
       <c r="O36" t="n">
         <v>614.4252180716981</v>
       </c>
       <c r="P36" t="n">
-        <v>87.08336481931465</v>
+        <v>496.801919078302</v>
       </c>
       <c r="Q36" t="n">
-        <v>90.98815315591399</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R36" t="n">
         <v>71.01380490566048</v>
@@ -10905,10 +10905,10 @@
         <v>412.5657697396227</v>
       </c>
       <c r="L39" t="n">
-        <v>192.2856137303845</v>
+        <v>578.5109386733963</v>
       </c>
       <c r="M39" t="n">
-        <v>726.4998994499999</v>
+        <v>340.2745745069883</v>
       </c>
       <c r="N39" t="n">
         <v>85.37211285416666</v>
@@ -11145,13 +11145,13 @@
         <v>578.5109386733963</v>
       </c>
       <c r="M42" t="n">
-        <v>726.4998994499999</v>
+        <v>340.2745745069883</v>
       </c>
       <c r="N42" t="n">
         <v>85.37211285416666</v>
       </c>
       <c r="O42" t="n">
-        <v>228.1998931286865</v>
+        <v>614.4252180716981</v>
       </c>
       <c r="P42" t="n">
         <v>496.801919078302</v>
@@ -11382,13 +11382,13 @@
         <v>578.5109386733963</v>
       </c>
       <c r="M45" t="n">
-        <v>726.4998994499999</v>
+        <v>340.2745745069883</v>
       </c>
       <c r="N45" t="n">
-        <v>220.8844470939643</v>
+        <v>85.37211285416666</v>
       </c>
       <c r="O45" t="n">
-        <v>92.68755888888889</v>
+        <v>614.4252180716981</v>
       </c>
       <c r="P45" t="n">
         <v>496.801919078302</v>
@@ -23273,10 +23273,10 @@
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>101.064407172307</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>65.87543334372791</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23306,22 +23306,22 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>93.77010711362803</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>150.1872840214456</v>
       </c>
       <c r="U11" t="n">
-        <v>182.1168898750154</v>
+        <v>182.1168898750155</v>
       </c>
       <c r="V11" t="n">
-        <v>267.6074288087848</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>296.2107322866634</v>
+        <v>296.2107322866635</v>
       </c>
       <c r="X11" t="n">
-        <v>143.289802842323</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
         <v>0</v>
@@ -23416,13 +23416,13 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>97.4247543599387</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>82.99846957177843</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>82.92491162465754</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
@@ -23431,10 +23431,10 @@
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>13.06963345419281</v>
       </c>
       <c r="I13" t="n">
-        <v>60.68516871456092</v>
+        <v>60.68516871456097</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,7 +23461,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>51.58366707901689</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -23470,16 +23470,16 @@
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>211.5060914457862</v>
       </c>
       <c r="V13" t="n">
-        <v>61.56883547590765</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>209.4187856534022</v>
       </c>
       <c r="X13" t="n">
-        <v>160.6612066001148</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -23510,10 +23510,10 @@
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>249.7639075344423</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>65.87543334372785</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23543,16 +23543,16 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>93.77010711362797</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>30.09108713718876</v>
+        <v>118.0530455351139</v>
       </c>
       <c r="U14" t="n">
-        <v>182.1168898750154</v>
+        <v>182.1168898750155</v>
       </c>
       <c r="V14" t="n">
-        <v>267.6074288087848</v>
+        <v>267.6074288087849</v>
       </c>
       <c r="W14" t="n">
         <v>0</v>
@@ -23561,7 +23561,7 @@
         <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>321.447489593873</v>
       </c>
     </row>
     <row r="15">
@@ -23650,13 +23650,13 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>112.2776261096564</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>82.99846957177849</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
@@ -23665,13 +23665,13 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>95.493200966817</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>82.84545313338904</v>
       </c>
       <c r="I16" t="n">
-        <v>60.68516871456092</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23704,16 +23704,16 @@
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>83.91815264634255</v>
+        <v>162.2835489187163</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>10.36504764660197</v>
       </c>
       <c r="V16" t="n">
-        <v>192.241239332652</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>209.4187856534022</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
@@ -23783,7 +23783,7 @@
         <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>-5.115907697472721e-13</v>
       </c>
       <c r="U17" t="n">
         <v>0</v>
@@ -26123,7 +26123,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>1237128.512599754</v>
+        <v>1236827.738792874</v>
       </c>
     </row>
     <row r="3">
@@ -26131,7 +26131,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>1237128.512599754</v>
+        <v>1236827.738792874</v>
       </c>
     </row>
     <row r="4">
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>1239163.104026982</v>
+        <v>1239163.104026983</v>
       </c>
     </row>
     <row r="8">
@@ -26317,16 +26317,16 @@
         <v>36066.43561867136</v>
       </c>
       <c r="D2" t="n">
-        <v>36066.43561867135</v>
+        <v>36066.43561867137</v>
       </c>
       <c r="E2" t="n">
-        <v>31871.80468488014</v>
+        <v>31871.80468488012</v>
       </c>
       <c r="F2" t="n">
         <v>31871.80468488012</v>
       </c>
       <c r="G2" t="n">
-        <v>36066.43561867136</v>
+        <v>36066.43561867137</v>
       </c>
       <c r="H2" t="n">
         <v>36066.43561867136</v>
@@ -26338,13 +26338,13 @@
         <v>36066.43561867128</v>
       </c>
       <c r="K2" t="n">
-        <v>36066.43561867128</v>
+        <v>36066.43561867131</v>
       </c>
       <c r="L2" t="n">
-        <v>36066.43561867133</v>
+        <v>36066.43561867137</v>
       </c>
       <c r="M2" t="n">
-        <v>36066.43561867135</v>
+        <v>36066.43561867134</v>
       </c>
       <c r="N2" t="n">
         <v>36066.43561867136</v>
@@ -26353,7 +26353,7 @@
         <v>36066.43561867136</v>
       </c>
       <c r="P2" t="n">
-        <v>36066.43561867135</v>
+        <v>36066.43561867136</v>
       </c>
     </row>
     <row r="3">
@@ -26363,22 +26363,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>182204.9482918558</v>
+        <v>173858.657034055</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>14822.14031062201</v>
+        <v>22558.42953401354</v>
       </c>
       <c r="E3" t="n">
-        <v>112122.5614740446</v>
+        <v>112122.5614740445</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>47425.32553668193</v>
+        <v>47425.32553668198</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26387,25 +26387,25 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>206802.1491945025</v>
+        <v>200285.8640399293</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>57301.47179728556</v>
+        <v>62456.24177539681</v>
       </c>
       <c r="M3" t="n">
-        <v>42200.82945962303</v>
+        <v>43252.52447081113</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-11</v>
       </c>
       <c r="O3" t="n">
-        <v>27767.69404277126</v>
+        <v>27767.6940427712</v>
       </c>
       <c r="P3" t="n">
-        <v>4.547473508864641e-11</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -26415,19 +26415,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>178075.8047892387</v>
+        <v>184487.2052585816</v>
       </c>
       <c r="C4" t="n">
-        <v>178075.8047892387</v>
+        <v>184487.2052585816</v>
       </c>
       <c r="D4" t="n">
         <v>165792.0503172815</v>
       </c>
       <c r="E4" t="n">
-        <v>86988.78851589428</v>
+        <v>86988.78851589424</v>
       </c>
       <c r="F4" t="n">
-        <v>86988.78851589427</v>
+        <v>86988.78851589424</v>
       </c>
       <c r="G4" t="n">
         <v>134747.7050074764</v>
@@ -26439,13 +26439,13 @@
         <v>134747.7050074764</v>
       </c>
       <c r="J4" t="n">
-        <v>135498.1974718595</v>
+        <v>135498.1974718596</v>
       </c>
       <c r="K4" t="n">
-        <v>135498.1974718595</v>
+        <v>135498.1974718596</v>
       </c>
       <c r="L4" t="n">
-        <v>135242.6235713762</v>
+        <v>135109.2289623215</v>
       </c>
       <c r="M4" t="n">
         <v>134747.7050074764</v>
@@ -26457,7 +26457,7 @@
         <v>134747.7050074764</v>
       </c>
       <c r="P4" t="n">
-        <v>134747.7050074765</v>
+        <v>134747.7050074764</v>
       </c>
     </row>
     <row r="5">
@@ -26467,10 +26467,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>66684.30114001376</v>
+        <v>65170.06753481721</v>
       </c>
       <c r="C5" t="n">
-        <v>66684.30114001376</v>
+        <v>65170.06753481721</v>
       </c>
       <c r="D5" t="n">
         <v>69585.45727717315</v>
@@ -26491,16 +26491,16 @@
         <v>58169.76931551966</v>
       </c>
       <c r="J5" t="n">
-        <v>63659.0452539195</v>
+        <v>63659.04525391951</v>
       </c>
       <c r="K5" t="n">
-        <v>63659.0452539195</v>
+        <v>63659.04525391951</v>
       </c>
       <c r="L5" t="n">
-        <v>61795.73629173847</v>
+        <v>60823.19813315421</v>
       </c>
       <c r="M5" t="n">
-        <v>58169.76931551966</v>
+        <v>58169.76931551965</v>
       </c>
       <c r="N5" t="n">
         <v>58169.76931551966</v>
@@ -26509,7 +26509,7 @@
         <v>58169.76931551966</v>
       </c>
       <c r="P5" t="n">
-        <v>58169.76931551968</v>
+        <v>58169.76931551966</v>
       </c>
     </row>
     <row r="6">
@@ -26519,19 +26519,19 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-390898.6186024369</v>
+        <v>-387449.4942087825</v>
       </c>
       <c r="C6" t="n">
-        <v>-208693.6703105811</v>
+        <v>-213590.8371747275</v>
       </c>
       <c r="D6" t="n">
-        <v>-214133.2122864053</v>
+        <v>-221869.5015097968</v>
       </c>
       <c r="E6" t="n">
-        <v>-220425.5650048992</v>
+        <v>-220635.2965515887</v>
       </c>
       <c r="F6" t="n">
-        <v>-108303.0035308547</v>
+        <v>-108512.7350775442</v>
       </c>
       <c r="G6" t="n">
         <v>-204276.3642410067</v>
@@ -26543,25 +26543,25 @@
         <v>-156851.0387043247</v>
       </c>
       <c r="J6" t="n">
-        <v>-369892.9563016103</v>
+        <v>-363376.6711470371</v>
       </c>
       <c r="K6" t="n">
-        <v>-163090.8071071077</v>
+        <v>-163090.8071071078</v>
       </c>
       <c r="L6" t="n">
-        <v>-218273.3960417289</v>
+        <v>-222322.2332522011</v>
       </c>
       <c r="M6" t="n">
-        <v>-199051.8681639478</v>
+        <v>-200103.5631751358</v>
       </c>
       <c r="N6" t="n">
+        <v>-156851.0387043248</v>
+      </c>
+      <c r="O6" t="n">
+        <v>-184618.7327470959</v>
+      </c>
+      <c r="P6" t="n">
         <v>-156851.0387043247</v>
-      </c>
-      <c r="O6" t="n">
-        <v>-184618.732747096</v>
-      </c>
-      <c r="P6" t="n">
-        <v>-156851.0387043249</v>
       </c>
     </row>
   </sheetData>
@@ -26692,10 +26692,10 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>71.07831239473197</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="F2" t="n">
-        <v>71.07831239473197</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="G2" t="n">
         <v>130.3599693155844</v>
@@ -26707,16 +26707,16 @@
         <v>130.3599693155844</v>
       </c>
       <c r="J2" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="K2" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="L2" t="n">
-        <v>106.336457300071</v>
+        <v>112.77991977271</v>
       </c>
       <c r="M2" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="N2" t="n">
         <v>130.3599693155844</v>
@@ -26787,10 +26787,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>543.6957424344369</v>
+        <v>518.7905844542304</v>
       </c>
       <c r="C4" t="n">
-        <v>543.6957424344369</v>
+        <v>518.7905844542304</v>
       </c>
       <c r="D4" t="n">
         <v>591.4121262692951</v>
@@ -26817,7 +26817,7 @@
         <v>917.0607368443782</v>
       </c>
       <c r="L4" t="n">
-        <v>869.34435300952</v>
+        <v>844.4391950293135</v>
       </c>
       <c r="M4" t="n">
         <v>776.4890963014441</v>
@@ -26829,7 +26829,7 @@
         <v>776.4890963014441</v>
       </c>
       <c r="P4" t="n">
-        <v>776.4890963014442</v>
+        <v>776.4890963014441</v>
       </c>
     </row>
   </sheetData>
@@ -26914,13 +26914,13 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>71.07831239473197</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>59.28165692085241</v>
+        <v>59.28165692085247</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -26929,25 +26929,25 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>34.70961755346407</v>
+        <v>34.709617553464</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>71.62683974660695</v>
+        <v>78.07030221924602</v>
       </c>
       <c r="M2" t="n">
-        <v>24.02351201551339</v>
+        <v>17.58004954287431</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>5.684341886080801e-14</v>
       </c>
       <c r="O2" t="n">
-        <v>34.70961755346407</v>
+        <v>34.709617553464</v>
       </c>
       <c r="P2" t="n">
-        <v>5.684341886080801e-14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27009,13 +27009,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>543.6957424344369</v>
+        <v>518.7905844542304</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>47.71638383485822</v>
+        <v>72.62154181506469</v>
       </c>
       <c r="E4" t="n">
         <v>185.076970032149</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>684.267382977371</v>
+        <v>659.3622249971645</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>92.22171332407311</v>
+        <v>117.1268713042796</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27151,13 +27151,13 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>71.07831239473197</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>59.28165692085241</v>
+        <v>59.28165692085247</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -27166,7 +27166,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>34.70961755346407</v>
+        <v>34.709617553464</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27255,13 +27255,13 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>543.6957424344369</v>
+        <v>518.7905844542304</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>47.71638383485822</v>
+        <v>72.62154181506469</v>
       </c>
       <c r="M4" t="n">
         <v>185.076970032149</v>
@@ -27382,22 +27382,22 @@
         <v>389.2437464820987</v>
       </c>
       <c r="D2" t="n">
-        <v>381.5867174954989</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>398.5576896346209</v>
       </c>
       <c r="F2" t="n">
         <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>189.5286974178385</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>320.8422199291742</v>
       </c>
       <c r="I2" t="n">
-        <v>136.9537457384598</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27424,7 +27424,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>6.798372216148842</v>
       </c>
       <c r="S2" t="n">
         <v>164.8484195083599</v>
@@ -27433,19 +27433,19 @@
         <v>221.2655964161775</v>
       </c>
       <c r="U2" t="n">
-        <v>253.1952022697474</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>338.6857412035168</v>
       </c>
       <c r="W2" t="n">
         <v>367.2890446813954</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>385.5580790162737</v>
       </c>
       <c r="Y2" t="n">
-        <v>392.5258019886049</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27458,7 +27458,7 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>124.5704364758563</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
@@ -27503,13 +27503,13 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>23.6778726709161</v>
       </c>
       <c r="S3" t="n">
-        <v>9.963768703236397</v>
+        <v>133.5813703291298</v>
       </c>
       <c r="T3" t="n">
-        <v>175.2139736830806</v>
+        <v>0</v>
       </c>
       <c r="U3" t="n">
         <v>0</v>
@@ -27537,10 +27537,10 @@
         <v>183.3559385043883</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>168.5030667546707</v>
       </c>
       <c r="D4" t="n">
-        <v>154.0767819665104</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
         <v>154.0032240193895</v>
@@ -27552,13 +27552,13 @@
         <v>166.5715133615489</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>153.923765528121</v>
       </c>
       <c r="I4" t="n">
         <v>131.7634811092929</v>
       </c>
       <c r="J4" t="n">
-        <v>30.07448747215907</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27582,13 +27582,13 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>122.6619794737488</v>
       </c>
       <c r="S4" t="n">
-        <v>140.936376853683</v>
+        <v>200.7879229792761</v>
       </c>
       <c r="T4" t="n">
-        <v>233.3618613134482</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
         <v>282.5844038405181</v>
@@ -27600,10 +27600,10 @@
         <v>280.4970980481341</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>133.4537134415073</v>
       </c>
       <c r="Y4" t="n">
-        <v>220.8809405715231</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -27616,7 +27616,7 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>389.2437464820987</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
@@ -27625,16 +27625,16 @@
         <v>398.5576896346209</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
         <v>320.8422199291742</v>
       </c>
       <c r="I5" t="n">
-        <v>136.9537457384598</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27670,19 +27670,19 @@
         <v>221.2655964161775</v>
       </c>
       <c r="U5" t="n">
-        <v>253.1952022697474</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>338.6857412035168</v>
       </c>
       <c r="W5" t="n">
-        <v>276.5302782818505</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="X5" t="n">
-        <v>385.5580790162737</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>392.3564512324227</v>
       </c>
     </row>
     <row r="6">
@@ -27698,7 +27698,7 @@
         <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>128.7880777047345</v>
       </c>
       <c r="E6" t="n">
         <v>0</v>
@@ -27707,7 +27707,7 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>118.8592197488542</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
@@ -27758,10 +27758,10 @@
         <v>0</v>
       </c>
       <c r="X6" t="n">
-        <v>0</v>
+        <v>153.0416017711681</v>
       </c>
       <c r="Y6" t="n">
-        <v>66.31852263746293</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -27774,7 +27774,7 @@
         <v>183.3559385043883</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>168.5030667546707</v>
       </c>
       <c r="D7" t="n">
         <v>154.0767819665104</v>
@@ -27789,10 +27789,10 @@
         <v>166.5715133615489</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>153.923765528121</v>
       </c>
       <c r="I7" t="n">
-        <v>131.7634811092929</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>30.07448747215907</v>
@@ -27822,13 +27822,13 @@
         <v>122.6619794737488</v>
       </c>
       <c r="S7" t="n">
-        <v>200.7879229792761</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>99.94376914001046</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>282.5844038405181</v>
       </c>
       <c r="V7" t="n">
         <v>263.319551727384</v>
@@ -27837,7 +27837,7 @@
         <v>280.4970980481341</v>
       </c>
       <c r="X7" t="n">
-        <v>231.7395189948467</v>
+        <v>59.22345610011661</v>
       </c>
       <c r="Y7" t="n">
         <v>220.8809405715231</v>
@@ -27850,25 +27850,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>396.4897982542829</v>
+        <v>384.433083310042</v>
       </c>
       <c r="C8" t="n">
         <v>389.2437464820987</v>
       </c>
       <c r="D8" t="n">
-        <v>194.7112308873016</v>
+        <v>381.5867174954989</v>
       </c>
       <c r="E8" t="n">
         <v>398.5576896346209</v>
       </c>
       <c r="F8" t="n">
+        <v>0</v>
+      </c>
+      <c r="G8" t="n">
         <v>400</v>
       </c>
-      <c r="G8" t="n">
-        <v>0</v>
-      </c>
       <c r="H8" t="n">
-        <v>320.8422199291742</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>136.9537457384598</v>
@@ -27904,7 +27904,7 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>221.2655964161775</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>253.1952022697474</v>
@@ -27913,7 +27913,7 @@
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
@@ -28014,10 +28014,10 @@
         <v>168.5030667546707</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>154.0767819665104</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>154.0032240193895</v>
       </c>
       <c r="F10" t="n">
         <v>155.7526754391568</v>
@@ -28032,7 +28032,7 @@
         <v>131.7634811092929</v>
       </c>
       <c r="J10" t="n">
-        <v>30.07448747215907</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28059,22 +28059,22 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>200.7879229792761</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>233.3618613134482</v>
+        <v>92.76473127889082</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>282.5844038405181</v>
       </c>
       <c r="V10" t="n">
-        <v>250.7849020729628</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W10" t="n">
         <v>280.4970980481341</v>
       </c>
       <c r="X10" t="n">
-        <v>231.7395189948467</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
         <v>220.8809405715231</v>
@@ -28087,28 +28087,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>71.07831239473197</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="C11" t="n">
-        <v>71.07831239473197</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="D11" t="n">
-        <v>71.07831239473197</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="E11" t="n">
-        <v>71.07831239473197</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="F11" t="n">
-        <v>71.07831239473197</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="G11" t="n">
-        <v>71.07831239473197</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="H11" t="n">
-        <v>71.07831239473197</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="I11" t="n">
-        <v>71.07831239473197</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -28138,25 +28138,25 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S11" t="n">
-        <v>71.07831239473197</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="T11" t="n">
-        <v>71.07831239473197</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="U11" t="n">
-        <v>71.07831239473197</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="V11" t="n">
-        <v>71.07831239473197</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="W11" t="n">
-        <v>71.07831239473197</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="X11" t="n">
-        <v>71.07831239473197</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="Y11" t="n">
-        <v>71.07831239473197</v>
+        <v>71.07831239473191</v>
       </c>
     </row>
     <row r="12">
@@ -28245,76 +28245,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>71.07831239473197</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="C13" t="n">
-        <v>71.07831239473197</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="D13" t="n">
-        <v>71.07831239473197</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="E13" t="n">
-        <v>71.07831239473197</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="F13" t="n">
-        <v>71.07831239473197</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="G13" t="n">
-        <v>71.07831239473197</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="H13" t="n">
-        <v>71.07831239473197</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="I13" t="n">
-        <v>71.07831239473197</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="J13" t="n">
-        <v>71.07831239473197</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="K13" t="n">
-        <v>71.07831239473197</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="L13" t="n">
-        <v>71.07831239473197</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="M13" t="n">
-        <v>71.07831239473197</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="N13" t="n">
-        <v>71.07831239473197</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="O13" t="n">
-        <v>71.07831239473197</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="P13" t="n">
-        <v>71.07831239473197</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="Q13" t="n">
-        <v>71.07831239473197</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="R13" t="n">
-        <v>71.07831239473197</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="S13" t="n">
-        <v>71.07831239473197</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="T13" t="n">
-        <v>71.07831239473197</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="U13" t="n">
-        <v>71.07831239473197</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="V13" t="n">
-        <v>71.07831239473197</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="W13" t="n">
-        <v>71.07831239473197</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="X13" t="n">
-        <v>71.07831239473197</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="Y13" t="n">
-        <v>71.07831239473197</v>
+        <v>71.07831239473191</v>
       </c>
     </row>
     <row r="14">
@@ -28324,28 +28324,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>71.07831239473197</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="C14" t="n">
-        <v>71.07831239473197</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="D14" t="n">
-        <v>71.07831239473197</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="E14" t="n">
-        <v>71.07831239473197</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="F14" t="n">
-        <v>71.07831239473197</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="G14" t="n">
-        <v>71.07831239473197</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="H14" t="n">
-        <v>71.07831239473197</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="I14" t="n">
-        <v>71.07831239473197</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -28375,25 +28375,25 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S14" t="n">
-        <v>71.07831239473197</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="T14" t="n">
-        <v>71.07831239473197</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="U14" t="n">
-        <v>71.07831239473197</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="V14" t="n">
-        <v>71.07831239473197</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="W14" t="n">
-        <v>71.07831239473197</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="X14" t="n">
-        <v>71.07831239473197</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="Y14" t="n">
-        <v>71.07831239473197</v>
+        <v>71.07831239473191</v>
       </c>
     </row>
     <row r="15">
@@ -28482,76 +28482,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>71.07831239473197</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="C16" t="n">
-        <v>71.07831239473197</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="D16" t="n">
-        <v>71.07831239473197</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="E16" t="n">
-        <v>71.07831239473197</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="F16" t="n">
-        <v>71.07831239473197</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="G16" t="n">
-        <v>71.07831239473197</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="H16" t="n">
-        <v>71.07831239473197</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="I16" t="n">
-        <v>71.07831239473197</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="J16" t="n">
-        <v>71.07831239473197</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="K16" t="n">
-        <v>71.07831239473197</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="L16" t="n">
-        <v>71.07831239473197</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="M16" t="n">
-        <v>71.07831239473197</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="N16" t="n">
-        <v>71.07831239473197</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="O16" t="n">
-        <v>71.07831239473197</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="P16" t="n">
-        <v>71.07831239473197</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="Q16" t="n">
-        <v>71.07831239473197</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="R16" t="n">
-        <v>71.07831239473197</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="S16" t="n">
-        <v>71.07831239473197</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="T16" t="n">
-        <v>71.07831239473197</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="U16" t="n">
-        <v>71.07831239473197</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="V16" t="n">
-        <v>71.07831239473197</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="W16" t="n">
-        <v>71.07831239473197</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="X16" t="n">
-        <v>71.07831239473197</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="Y16" t="n">
-        <v>71.07831239473197</v>
+        <v>71.07831239473191</v>
       </c>
     </row>
     <row r="17">
@@ -28755,10 +28755,10 @@
         <v>0</v>
       </c>
       <c r="N19" t="n">
-        <v>0</v>
+        <v>128.2979821082778</v>
       </c>
       <c r="O19" t="n">
-        <v>128.2979821082778</v>
+        <v>0</v>
       </c>
       <c r="P19" t="n">
         <v>0</v>
@@ -28986,22 +28986,22 @@
         <v>0</v>
       </c>
       <c r="L22" t="n">
-        <v>0</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="M22" t="n">
         <v>0</v>
       </c>
       <c r="N22" t="n">
-        <v>0</v>
+        <v>5.636002634529149</v>
       </c>
       <c r="O22" t="n">
         <v>0</v>
       </c>
       <c r="P22" t="n">
-        <v>5.636002634528936</v>
+        <v>0</v>
       </c>
       <c r="Q22" t="n">
-        <v>130.3599693155844</v>
+        <v>0</v>
       </c>
       <c r="R22" t="n">
         <v>122.6619794737488</v>
@@ -29086,7 +29086,7 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S23" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155848</v>
       </c>
       <c r="T23" t="n">
         <v>130.3599693155844</v>
@@ -29223,25 +29223,25 @@
         <v>0</v>
       </c>
       <c r="L25" t="n">
+        <v>0</v>
+      </c>
+      <c r="M25" t="n">
+        <v>128.2979821082779</v>
+      </c>
+      <c r="N25" t="n">
+        <v>0</v>
+      </c>
+      <c r="O25" t="n">
+        <v>0</v>
+      </c>
+      <c r="P25" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q25" t="n">
+        <v>0</v>
+      </c>
+      <c r="R25" t="n">
         <v>130.3599693155844</v>
-      </c>
-      <c r="M25" t="n">
-        <v>0</v>
-      </c>
-      <c r="N25" t="n">
-        <v>0</v>
-      </c>
-      <c r="O25" t="n">
-        <v>0</v>
-      </c>
-      <c r="P25" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q25" t="n">
-        <v>0</v>
-      </c>
-      <c r="R25" t="n">
-        <v>128.2979821082783</v>
       </c>
       <c r="S25" t="n">
         <v>130.3599693155844</v>
@@ -29272,76 +29272,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="C26" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="D26" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="E26" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="F26" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="G26" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="H26" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="I26" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="J26" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="K26" t="n">
-        <v>86.65052755599521</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="L26" t="n">
-        <v>93.99127447431646</v>
+        <v>0</v>
       </c>
       <c r="M26" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="N26" t="n">
-        <v>93.99127447431646</v>
+        <v>0</v>
       </c>
       <c r="O26" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="P26" t="n">
-        <v>0</v>
+        <v>30.27223765901232</v>
       </c>
       <c r="Q26" t="n">
-        <v>0</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="R26" t="n">
-        <v>37.61298457733328</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="S26" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="T26" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="U26" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="V26" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="W26" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="X26" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="Y26" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
     </row>
     <row r="27">
@@ -29430,76 +29430,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="C28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="D28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="E28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="F28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="G28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="H28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="I28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="J28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="K28" t="n">
-        <v>93.99127447431636</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="L28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="M28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="N28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="O28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="P28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431641</v>
       </c>
       <c r="Q28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="R28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="S28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="T28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="U28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="V28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="W28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="X28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="Y28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
     </row>
     <row r="29">
@@ -29509,28 +29509,28 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="C29" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="D29" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="E29" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="F29" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="G29" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="H29" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="I29" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="J29" t="n">
         <v>30.27223765901215</v>
@@ -29539,46 +29539,46 @@
         <v>0</v>
       </c>
       <c r="L29" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="M29" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="N29" t="n">
-        <v>93.99127447431646</v>
+        <v>0</v>
       </c>
       <c r="O29" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="P29" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="Q29" t="n">
-        <v>0</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="R29" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="S29" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="T29" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="U29" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="V29" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="W29" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="X29" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="Y29" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
     </row>
     <row r="30">
@@ -29667,76 +29667,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="C31" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="D31" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="E31" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="F31" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="G31" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="H31" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="I31" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="J31" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="K31" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="L31" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="M31" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="N31" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="O31" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="P31" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="Q31" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="R31" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="S31" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="T31" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="U31" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="V31" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="W31" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="X31" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="Y31" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
     </row>
     <row r="32">
@@ -29746,49 +29746,49 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>106.336457300071</v>
+        <v>112.77991977271</v>
       </c>
       <c r="C32" t="n">
-        <v>106.336457300071</v>
+        <v>112.77991977271</v>
       </c>
       <c r="D32" t="n">
-        <v>106.336457300071</v>
+        <v>112.77991977271</v>
       </c>
       <c r="E32" t="n">
-        <v>106.336457300071</v>
+        <v>112.77991977271</v>
       </c>
       <c r="F32" t="n">
-        <v>106.336457300071</v>
+        <v>112.77991977271</v>
       </c>
       <c r="G32" t="n">
-        <v>106.336457300071</v>
+        <v>112.77991977271</v>
       </c>
       <c r="H32" t="n">
-        <v>106.336457300071</v>
+        <v>112.77991977271</v>
       </c>
       <c r="I32" t="n">
-        <v>106.336457300071</v>
+        <v>112.77991977271</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
       </c>
       <c r="K32" t="n">
-        <v>48.65992738833057</v>
+        <v>112.77991977271</v>
       </c>
       <c r="L32" t="n">
-        <v>106.336457300071</v>
+        <v>0</v>
       </c>
       <c r="M32" t="n">
         <v>0</v>
       </c>
       <c r="N32" t="n">
-        <v>106.336457300071</v>
+        <v>0</v>
       </c>
       <c r="O32" t="n">
-        <v>0</v>
+        <v>43.4950968315988</v>
       </c>
       <c r="P32" t="n">
-        <v>106.336457300071</v>
+        <v>112.77991977271</v>
       </c>
       <c r="Q32" t="n">
         <v>0</v>
@@ -29797,25 +29797,25 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S32" t="n">
-        <v>106.336457300071</v>
+        <v>112.77991977271</v>
       </c>
       <c r="T32" t="n">
-        <v>106.336457300071</v>
+        <v>112.77991977271</v>
       </c>
       <c r="U32" t="n">
-        <v>106.336457300071</v>
+        <v>112.77991977271</v>
       </c>
       <c r="V32" t="n">
-        <v>106.336457300071</v>
+        <v>112.77991977271</v>
       </c>
       <c r="W32" t="n">
-        <v>106.336457300071</v>
+        <v>112.77991977271</v>
       </c>
       <c r="X32" t="n">
-        <v>106.336457300071</v>
+        <v>112.77991977271</v>
       </c>
       <c r="Y32" t="n">
-        <v>106.336457300071</v>
+        <v>112.77991977271</v>
       </c>
     </row>
     <row r="33">
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>106.336457300071</v>
+        <v>112.77991977271</v>
       </c>
       <c r="C34" t="n">
-        <v>106.336457300071</v>
+        <v>112.77991977271</v>
       </c>
       <c r="D34" t="n">
-        <v>106.336457300071</v>
+        <v>112.77991977271</v>
       </c>
       <c r="E34" t="n">
-        <v>106.336457300071</v>
+        <v>112.77991977271</v>
       </c>
       <c r="F34" t="n">
-        <v>106.336457300071</v>
+        <v>112.77991977271</v>
       </c>
       <c r="G34" t="n">
-        <v>106.336457300071</v>
+        <v>112.77991977271</v>
       </c>
       <c r="H34" t="n">
-        <v>106.336457300071</v>
+        <v>112.77991977271</v>
       </c>
       <c r="I34" t="n">
-        <v>106.336457300071</v>
+        <v>112.77991977271</v>
       </c>
       <c r="J34" t="n">
-        <v>106.336457300071</v>
+        <v>30.07448747215907</v>
       </c>
       <c r="K34" t="n">
-        <v>0</v>
+        <v>112.77991977271</v>
       </c>
       <c r="L34" t="n">
-        <v>106.336457300071</v>
+        <v>112.77991977271</v>
       </c>
       <c r="M34" t="n">
-        <v>0</v>
+        <v>76.79385455031246</v>
       </c>
       <c r="N34" t="n">
-        <v>106.336457300071</v>
+        <v>0</v>
       </c>
       <c r="O34" t="n">
-        <v>106.336457300071</v>
+        <v>0</v>
       </c>
       <c r="P34" t="n">
-        <v>106.336457300071</v>
+        <v>0</v>
       </c>
       <c r="Q34" t="n">
-        <v>18.71446861253959</v>
+        <v>112.77991977271</v>
       </c>
       <c r="R34" t="n">
-        <v>106.336457300071</v>
+        <v>112.77991977271</v>
       </c>
       <c r="S34" t="n">
-        <v>106.336457300071</v>
+        <v>112.77991977271</v>
       </c>
       <c r="T34" t="n">
-        <v>106.336457300071</v>
+        <v>112.77991977271</v>
       </c>
       <c r="U34" t="n">
-        <v>106.336457300071</v>
+        <v>112.77991977271</v>
       </c>
       <c r="V34" t="n">
-        <v>106.336457300071</v>
+        <v>112.77991977271</v>
       </c>
       <c r="W34" t="n">
-        <v>106.336457300071</v>
+        <v>112.77991977271</v>
       </c>
       <c r="X34" t="n">
-        <v>106.336457300071</v>
+        <v>112.77991977271</v>
       </c>
       <c r="Y34" t="n">
-        <v>106.336457300071</v>
+        <v>112.77991977271</v>
       </c>
     </row>
     <row r="35">
@@ -29983,28 +29983,28 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="C35" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="D35" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="E35" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="F35" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="G35" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="H35" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="I35" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -30034,25 +30034,25 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S35" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="T35" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="U35" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="V35" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="W35" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="X35" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="Y35" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
     </row>
     <row r="36">
@@ -30141,34 +30141,34 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="C37" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="D37" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="E37" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="F37" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="G37" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="H37" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="I37" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="J37" t="n">
-        <v>130.3599693155844</v>
+        <v>30.07448747215907</v>
       </c>
       <c r="K37" t="n">
-        <v>28.01250026485259</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="L37" t="n">
         <v>0</v>
@@ -30189,28 +30189,28 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>130.3599693155844</v>
+        <v>128.2979821082788</v>
       </c>
       <c r="S37" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="T37" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="U37" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="V37" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="W37" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="X37" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="Y37" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
     </row>
     <row r="38">
@@ -30414,19 +30414,19 @@
         <v>0</v>
       </c>
       <c r="N40" t="n">
-        <v>0</v>
+        <v>128.2979821082778</v>
       </c>
       <c r="O40" t="n">
+        <v>0</v>
+      </c>
+      <c r="P40" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q40" t="n">
+        <v>0</v>
+      </c>
+      <c r="R40" t="n">
         <v>130.3599693155844</v>
-      </c>
-      <c r="P40" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q40" t="n">
-        <v>5.636002634529005</v>
-      </c>
-      <c r="R40" t="n">
-        <v>122.6619794737488</v>
       </c>
       <c r="S40" t="n">
         <v>130.3599693155844</v>
@@ -30642,7 +30642,7 @@
         <v>130.3599693155844</v>
       </c>
       <c r="K43" t="n">
-        <v>0</v>
+        <v>28.01250026485259</v>
       </c>
       <c r="L43" t="n">
         <v>0</v>
@@ -30651,7 +30651,7 @@
         <v>0</v>
       </c>
       <c r="N43" t="n">
-        <v>35.71049010668813</v>
+        <v>0</v>
       </c>
       <c r="O43" t="n">
         <v>0</v>
@@ -30663,7 +30663,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>122.6619794737488</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="S43" t="n">
         <v>130.3599693155844</v>
@@ -30879,28 +30879,28 @@
         <v>30.07448747215907</v>
       </c>
       <c r="K46" t="n">
-        <v>5.63600263452814</v>
+        <v>0</v>
       </c>
       <c r="L46" t="n">
+        <v>0</v>
+      </c>
+      <c r="M46" t="n">
+        <v>0</v>
+      </c>
+      <c r="N46" t="n">
+        <v>0</v>
+      </c>
+      <c r="O46" t="n">
+        <v>0</v>
+      </c>
+      <c r="P46" t="n">
+        <v>128.2979821082783</v>
+      </c>
+      <c r="Q46" t="n">
+        <v>0</v>
+      </c>
+      <c r="R46" t="n">
         <v>130.3599693155844</v>
-      </c>
-      <c r="M46" t="n">
-        <v>0</v>
-      </c>
-      <c r="N46" t="n">
-        <v>0</v>
-      </c>
-      <c r="O46" t="n">
-        <v>0</v>
-      </c>
-      <c r="P46" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q46" t="n">
-        <v>0</v>
-      </c>
-      <c r="R46" t="n">
-        <v>122.6619794737488</v>
       </c>
       <c r="S46" t="n">
         <v>130.3599693155844</v>
@@ -34696,28 +34696,28 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>146.110881726089</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
         <v>362.6084404317796</v>
       </c>
       <c r="L2" t="n">
-        <v>498.303324968211</v>
+        <v>302.3069552345692</v>
       </c>
       <c r="M2" t="n">
-        <v>543.6957424344369</v>
+        <v>518.7905844542304</v>
       </c>
       <c r="N2" t="n">
-        <v>415.3843884213463</v>
+        <v>518.7905844542304</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>351.7045375065877</v>
       </c>
       <c r="Q2" t="n">
-        <v>186.7126870110591</v>
+        <v>0</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -34775,28 +34775,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>114.2575577977044</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
         <v>322.9688344062893</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>488.450591816478</v>
       </c>
       <c r="M3" t="n">
-        <v>3.70470120068393</v>
+        <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>543.6957424344369</v>
+        <v>518.7905844542304</v>
       </c>
       <c r="O3" t="n">
-        <v>521.7376591828091</v>
+        <v>518.7905844542304</v>
       </c>
       <c r="P3" t="n">
-        <v>409.7185542589873</v>
+        <v>205.2005069501687</v>
       </c>
       <c r="Q3" t="n">
-        <v>236.7324157120106</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34933,28 +34933,28 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>146.110881726089</v>
+        <v>0</v>
       </c>
       <c r="K5" t="n">
         <v>362.6084404317796</v>
       </c>
       <c r="L5" t="n">
-        <v>498.303324968211</v>
+        <v>467.2988057300978</v>
       </c>
       <c r="M5" t="n">
-        <v>543.6957424344369</v>
+        <v>518.7905844542304</v>
       </c>
       <c r="N5" t="n">
-        <v>0</v>
+        <v>518.7905844542304</v>
       </c>
       <c r="O5" t="n">
-        <v>444.4844453457863</v>
+        <v>0</v>
       </c>
       <c r="P5" t="n">
         <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>157.6126300866189</v>
+        <v>186.7126870110591</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35012,28 +35012,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>322.9688344062893</v>
       </c>
       <c r="L6" t="n">
         <v>488.450591816478</v>
       </c>
       <c r="M6" t="n">
-        <v>543.6957424344369</v>
+        <v>482.0731480899272</v>
       </c>
       <c r="N6" t="n">
-        <v>543.6957424344369</v>
+        <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>521.7376591828091</v>
+        <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>0</v>
+        <v>409.7185542589873</v>
       </c>
       <c r="Q6" t="n">
-        <v>55.23572912476093</v>
+        <v>236.7324157120106</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35173,7 +35173,7 @@
         <v>146.110881726089</v>
       </c>
       <c r="K8" t="n">
-        <v>362.6084404317796</v>
+        <v>74.2628630240068</v>
       </c>
       <c r="L8" t="n">
         <v>498.303324968211</v>
@@ -35182,7 +35182,7 @@
         <v>551.5160606510915</v>
       </c>
       <c r="N8" t="n">
-        <v>431.5098203481975</v>
+        <v>533.1427107449111</v>
       </c>
       <c r="O8" t="n">
         <v>0</v>
@@ -35191,7 +35191,7 @@
         <v>351.7045375065877</v>
       </c>
       <c r="Q8" t="n">
-        <v>0</v>
+        <v>186.7126870110591</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -35252,25 +35252,25 @@
         <v>114.2575577977044</v>
       </c>
       <c r="K9" t="n">
-        <v>34.48300429637442</v>
+        <v>322.9688344062893</v>
       </c>
       <c r="L9" t="n">
         <v>488.450591816478</v>
       </c>
       <c r="M9" t="n">
-        <v>591.4121262692951</v>
+        <v>247.8874524576771</v>
       </c>
       <c r="N9" t="n">
-        <v>591.4121262692951</v>
+        <v>0</v>
       </c>
       <c r="O9" t="n">
         <v>521.7376591828091</v>
       </c>
       <c r="P9" t="n">
-        <v>0</v>
+        <v>409.7185542589873</v>
       </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>236.7324157120106</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35428,7 +35428,7 @@
         <v>351.7045375065877</v>
       </c>
       <c r="Q11" t="n">
-        <v>186.7126870110593</v>
+        <v>186.7126870110591</v>
       </c>
       <c r="R11" t="n">
         <v>0</v>
@@ -35565,19 +35565,19 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>41.0038249225729</v>
+        <v>41.00382492257284</v>
       </c>
       <c r="K13" t="n">
         <v>153.7399700815419</v>
       </c>
       <c r="L13" t="n">
-        <v>236.863807216752</v>
+        <v>236.8638072167519</v>
       </c>
       <c r="M13" t="n">
         <v>259.2516238475239</v>
       </c>
       <c r="N13" t="n">
-        <v>256.1183467696908</v>
+        <v>256.1183467696907</v>
       </c>
       <c r="O13" t="n">
         <v>235.4265619318108</v>
@@ -35586,7 +35586,7 @@
         <v>192.1653485326901</v>
       </c>
       <c r="Q13" t="n">
-        <v>74.53507640488445</v>
+        <v>74.53507640488439</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35726,25 +35726,25 @@
         <v>114.2575577977044</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>322.9688344062893</v>
       </c>
       <c r="L15" t="n">
         <v>488.450591816478</v>
       </c>
       <c r="M15" t="n">
-        <v>554.9052657131872</v>
+        <v>247.8874524576764</v>
       </c>
       <c r="N15" t="n">
-        <v>662.4019911217769</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
         <v>521.7376591828091</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>409.7185542589873</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>236.7324157120106</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35802,19 +35802,19 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>41.0038249225729</v>
+        <v>41.00382492257284</v>
       </c>
       <c r="K16" t="n">
         <v>153.7399700815419</v>
       </c>
       <c r="L16" t="n">
-        <v>236.863807216752</v>
+        <v>236.8638072167519</v>
       </c>
       <c r="M16" t="n">
         <v>259.2516238475239</v>
       </c>
       <c r="N16" t="n">
-        <v>256.1183467696908</v>
+        <v>256.1183467696907</v>
       </c>
       <c r="O16" t="n">
         <v>235.4265619318108</v>
@@ -35823,7 +35823,7 @@
         <v>192.1653485326901</v>
       </c>
       <c r="Q16" t="n">
-        <v>74.53507640488445</v>
+        <v>74.53507640488439</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35969,13 +35969,13 @@
         <v>488.450591816478</v>
       </c>
       <c r="M18" t="n">
-        <v>0</v>
+        <v>247.8874524576764</v>
       </c>
       <c r="N18" t="n">
-        <v>662.4019911217769</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>107.2231205187088</v>
+        <v>521.7376591828091</v>
       </c>
       <c r="P18" t="n">
         <v>409.7185542589873</v>
@@ -36051,10 +36051,10 @@
         <v>188.1733114527919</v>
       </c>
       <c r="N19" t="n">
-        <v>185.0400343749588</v>
+        <v>313.3380164832366</v>
       </c>
       <c r="O19" t="n">
-        <v>292.6462316453567</v>
+        <v>164.3482495370789</v>
       </c>
       <c r="P19" t="n">
         <v>121.0870361379582</v>
@@ -36127,13 +36127,13 @@
         <v>498.303324968211</v>
       </c>
       <c r="M20" t="n">
-        <v>551.5160606510925</v>
+        <v>551.5160606510915</v>
       </c>
       <c r="N20" t="n">
         <v>533.1427107449111</v>
       </c>
       <c r="O20" t="n">
-        <v>444.4844453457863</v>
+        <v>444.4844453457873</v>
       </c>
       <c r="P20" t="n">
         <v>351.7045375065877</v>
@@ -36197,7 +36197,7 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K21" t="n">
         <v>322.9688344062893</v>
@@ -36206,7 +36206,7 @@
         <v>488.450591816478</v>
       </c>
       <c r="M21" t="n">
-        <v>362.1450102553808</v>
+        <v>247.8874524576764</v>
       </c>
       <c r="N21" t="n">
         <v>0</v>
@@ -36282,22 +36282,22 @@
         <v>82.66165768680997</v>
       </c>
       <c r="L22" t="n">
-        <v>165.78549482202</v>
+        <v>296.1454641376043</v>
       </c>
       <c r="M22" t="n">
         <v>188.1733114527919</v>
       </c>
       <c r="N22" t="n">
-        <v>185.0400343749588</v>
+        <v>190.6760370094879</v>
       </c>
       <c r="O22" t="n">
         <v>164.3482495370789</v>
       </c>
       <c r="P22" t="n">
-        <v>126.7230387724871</v>
+        <v>121.0870361379582</v>
       </c>
       <c r="Q22" t="n">
-        <v>133.8167333257369</v>
+        <v>3.456764010152483</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36519,10 +36519,10 @@
         <v>82.66165768680997</v>
       </c>
       <c r="L25" t="n">
-        <v>296.1454641376043</v>
+        <v>165.78549482202</v>
       </c>
       <c r="M25" t="n">
-        <v>188.1733114527919</v>
+        <v>316.4712935610698</v>
       </c>
       <c r="N25" t="n">
         <v>185.0400343749588</v>
@@ -36537,7 +36537,7 @@
         <v>3.456764010152483</v>
       </c>
       <c r="R25" t="n">
-        <v>5.636002634529554</v>
+        <v>7.697989841835579</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -36592,31 +36592,31 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>240.1021562004054</v>
+        <v>240.1021562004055</v>
       </c>
       <c r="K26" t="n">
-        <v>449.2589679877748</v>
+        <v>456.5997149060961</v>
       </c>
       <c r="L26" t="n">
-        <v>592.2945994425274</v>
+        <v>498.303324968211</v>
       </c>
       <c r="M26" t="n">
         <v>645.507335125408</v>
       </c>
       <c r="N26" t="n">
-        <v>627.1339852192276</v>
+        <v>533.1427107449111</v>
       </c>
       <c r="O26" t="n">
         <v>538.4757198201028</v>
       </c>
       <c r="P26" t="n">
-        <v>351.7045375065877</v>
+        <v>381.9767751656</v>
       </c>
       <c r="Q26" t="n">
-        <v>186.7126870110591</v>
+        <v>280.7039614853756</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>56.37828989698319</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36689,7 +36689,7 @@
         <v>521.7376591828091</v>
       </c>
       <c r="P27" t="n">
-        <v>260.2256450279872</v>
+        <v>260.2256450279863</v>
       </c>
       <c r="Q27" t="n">
         <v>0</v>
@@ -36750,10 +36750,10 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>63.91678700215738</v>
+        <v>63.9167870021574</v>
       </c>
       <c r="K28" t="n">
-        <v>176.6529321611263</v>
+        <v>176.6529321611264</v>
       </c>
       <c r="L28" t="n">
         <v>259.7767692963365</v>
@@ -36771,7 +36771,7 @@
         <v>215.0783106122746</v>
       </c>
       <c r="Q28" t="n">
-        <v>97.44803848446894</v>
+        <v>97.44803848446895</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36841,7 +36841,7 @@
         <v>645.507335125408</v>
       </c>
       <c r="N29" t="n">
-        <v>627.1339852192276</v>
+        <v>533.1427107449111</v>
       </c>
       <c r="O29" t="n">
         <v>538.4757198201028</v>
@@ -36850,10 +36850,10 @@
         <v>445.6958119809042</v>
       </c>
       <c r="Q29" t="n">
-        <v>186.7126870110591</v>
+        <v>280.7039614853756</v>
       </c>
       <c r="R29" t="n">
-        <v>56.37828989698318</v>
+        <v>56.37828989698319</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36908,28 +36908,28 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>322.9688344062893</v>
       </c>
       <c r="L30" t="n">
         <v>488.450591816478</v>
       </c>
       <c r="M30" t="n">
-        <v>634.1127774006881</v>
+        <v>247.8874524576761</v>
       </c>
       <c r="N30" t="n">
-        <v>662.4019911217769</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
         <v>521.7376591828091</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>409.7185542589873</v>
       </c>
       <c r="Q30" t="n">
-        <v>35.05004611020335</v>
+        <v>236.7324157120106</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -36987,7 +36987,7 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>63.91678700215738</v>
+        <v>63.9167870021574</v>
       </c>
       <c r="K31" t="n">
         <v>176.6529321611264</v>
@@ -37008,7 +37008,7 @@
         <v>215.0783106122746</v>
       </c>
       <c r="Q31" t="n">
-        <v>97.44803848446894</v>
+        <v>97.44803848446895</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37069,22 +37069,22 @@
         <v>146.110881726089</v>
       </c>
       <c r="K32" t="n">
-        <v>411.2683678201102</v>
+        <v>475.3883602044896</v>
       </c>
       <c r="L32" t="n">
-        <v>604.6397822682819</v>
+        <v>498.303324968211</v>
       </c>
       <c r="M32" t="n">
         <v>551.5160606510915</v>
       </c>
       <c r="N32" t="n">
-        <v>639.4791680449821</v>
+        <v>533.1427107449111</v>
       </c>
       <c r="O32" t="n">
-        <v>444.4844453457863</v>
+        <v>487.9795421773851</v>
       </c>
       <c r="P32" t="n">
-        <v>458.0409948066587</v>
+        <v>464.4844572792977</v>
       </c>
       <c r="Q32" t="n">
         <v>186.7126870110591</v>
@@ -37145,7 +37145,7 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K33" t="n">
         <v>322.9688344062893</v>
@@ -37154,10 +37154,10 @@
         <v>488.450591816478</v>
       </c>
       <c r="M33" t="n">
-        <v>0</v>
+        <v>247.8874524576769</v>
       </c>
       <c r="N33" t="n">
-        <v>362.1450102553808</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
         <v>521.7376591828091</v>
@@ -37224,28 +37224,28 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>76.26196982791191</v>
+        <v>0</v>
       </c>
       <c r="K34" t="n">
-        <v>82.66165768680997</v>
+        <v>195.44157745952</v>
       </c>
       <c r="L34" t="n">
-        <v>272.121952122091</v>
+        <v>278.56541459473</v>
       </c>
       <c r="M34" t="n">
-        <v>188.1733114527919</v>
+        <v>264.9671660031044</v>
       </c>
       <c r="N34" t="n">
-        <v>291.3764916750298</v>
+        <v>185.0400343749588</v>
       </c>
       <c r="O34" t="n">
-        <v>270.6847068371499</v>
+        <v>164.3482495370789</v>
       </c>
       <c r="P34" t="n">
-        <v>227.4234934380291</v>
+        <v>121.0870361379582</v>
       </c>
       <c r="Q34" t="n">
-        <v>22.17123262269207</v>
+        <v>116.2366837828625</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37382,28 +37382,28 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K36" t="n">
-        <v>35.0500461102036</v>
+        <v>322.9688344062893</v>
       </c>
       <c r="L36" t="n">
         <v>488.450591816478</v>
       </c>
       <c r="M36" t="n">
-        <v>634.1127774006881</v>
+        <v>247.8874524576764</v>
       </c>
       <c r="N36" t="n">
-        <v>662.4019911217769</v>
+        <v>0</v>
       </c>
       <c r="O36" t="n">
         <v>521.7376591828091</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>409.7185542589873</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>236.7324157120106</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37461,10 +37461,10 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>100.2854818434253</v>
+        <v>0</v>
       </c>
       <c r="K37" t="n">
-        <v>110.6741579516626</v>
+        <v>213.0216270023943</v>
       </c>
       <c r="L37" t="n">
         <v>165.78549482202</v>
@@ -37485,7 +37485,7 @@
         <v>3.456764010152483</v>
       </c>
       <c r="R37" t="n">
-        <v>7.697989841835579</v>
+        <v>5.636002634530013</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -37625,10 +37625,10 @@
         <v>322.9688344062893</v>
       </c>
       <c r="L39" t="n">
-        <v>102.2252668734663</v>
+        <v>488.450591816478</v>
       </c>
       <c r="M39" t="n">
-        <v>634.1127774006881</v>
+        <v>247.8874524576764</v>
       </c>
       <c r="N39" t="n">
         <v>0</v>
@@ -37710,19 +37710,19 @@
         <v>188.1733114527919</v>
       </c>
       <c r="N40" t="n">
-        <v>185.0400343749588</v>
+        <v>313.3380164832366</v>
       </c>
       <c r="O40" t="n">
-        <v>294.7082188526632</v>
+        <v>164.3482495370789</v>
       </c>
       <c r="P40" t="n">
         <v>121.0870361379582</v>
       </c>
       <c r="Q40" t="n">
-        <v>9.092766644681488</v>
+        <v>3.456764010152483</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>7.697989841835579</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -37865,13 +37865,13 @@
         <v>488.450591816478</v>
       </c>
       <c r="M42" t="n">
-        <v>634.1127774006881</v>
+        <v>247.8874524576764</v>
       </c>
       <c r="N42" t="n">
         <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>135.5123342397976</v>
+        <v>521.7376591828091</v>
       </c>
       <c r="P42" t="n">
         <v>409.7185542589873</v>
@@ -37938,7 +37938,7 @@
         <v>100.2854818434253</v>
       </c>
       <c r="K43" t="n">
-        <v>82.66165768680997</v>
+        <v>110.6741579516626</v>
       </c>
       <c r="L43" t="n">
         <v>165.78549482202</v>
@@ -37947,7 +37947,7 @@
         <v>188.1733114527919</v>
       </c>
       <c r="N43" t="n">
-        <v>220.7505244816469</v>
+        <v>185.0400343749588</v>
       </c>
       <c r="O43" t="n">
         <v>164.3482495370789</v>
@@ -37959,7 +37959,7 @@
         <v>3.456764010152483</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>7.697989841835579</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
@@ -38102,13 +38102,13 @@
         <v>488.450591816478</v>
       </c>
       <c r="M45" t="n">
-        <v>634.1127774006881</v>
+        <v>247.8874524576764</v>
       </c>
       <c r="N45" t="n">
-        <v>135.5123342397976</v>
+        <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>0</v>
+        <v>521.7376591828091</v>
       </c>
       <c r="P45" t="n">
         <v>409.7185542589873</v>
@@ -38175,10 +38175,10 @@
         <v>0</v>
       </c>
       <c r="K46" t="n">
-        <v>88.29766032133811</v>
+        <v>82.66165768680997</v>
       </c>
       <c r="L46" t="n">
-        <v>296.1454641376044</v>
+        <v>165.78549482202</v>
       </c>
       <c r="M46" t="n">
         <v>188.1733114527919</v>
@@ -38190,13 +38190,13 @@
         <v>164.3482495370789</v>
       </c>
       <c r="P46" t="n">
-        <v>121.0870361379582</v>
+        <v>249.3850182462365</v>
       </c>
       <c r="Q46" t="n">
         <v>3.456764010152483</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>7.69798984183555</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
